--- a/Final Data/allExpPaperInfoTop50_AT.xlsx
+++ b/Final Data/allExpPaperInfoTop50_AT.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="257" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16000" windowHeight="10500" tabRatio="257"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$2:$F$51</definedName>
-    <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">Sheet2!$A$2:$F$51</definedName>
+    <definedName name="__Anonymous_Sheet_DB__1">Sheet2!$A$2:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$F$51</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1186,43 +1190,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Sans"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Sans"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <name val="Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Sans"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1234,13 +1220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1248,216 +1234,360 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="justify" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Gnumeric-default" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="BY35" activeCellId="0" pane="topLeft" sqref="BY35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BY35" sqref="BY35"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1960784313725"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="157.086274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.0627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.46274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.48235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="7.87450980392157"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.11764705882353"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.25490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="33.721568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.50196078431373"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="36.1725490196078"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="38.0078431372549"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="37.0274509803922"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="37.0274509803922"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="37.0274509803922"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="38.0078431372549"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="38.0078431372549"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="30.7803921568627"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="3.09019607843137"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="22.6941176470588"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="3.09019607843137"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="30.2901960784314"/>
-    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="37.0274509803922"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="3.09019607843137"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="15.9607843137255"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="23.921568627451"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="26.7411764705882"/>
-    <col collapsed="false" hidden="false" max="118" min="118" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="119" min="119" style="0" width="3.09019607843137"/>
-    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="17.7921568627451"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="24.7803921568627"/>
-    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="127" min="127" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="128" min="128" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="15.7137254901961"/>
-    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="256" min="132" style="0" width="7.58823529411765"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" spans="1:256" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,50 +1883,50 @@
       <c r="IU1" s="1"/>
       <c r="IV1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:256" ht="13">
+      <c r="A2" s="1">
         <v>4937</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>11050</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>18029348</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>2008</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>11050</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>11050</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1808,7 +1938,7 @@
       <c r="R2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="1">
         <v>192</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -1820,7 +1950,7 @@
       <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="1">
         <v>29</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -1832,7 +1962,7 @@
       <c r="Z2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AA2" s="1">
         <v>100</v>
       </c>
       <c r="AB2" s="1" t="s">
@@ -1844,7 +1974,7 @@
       <c r="AD2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AE2" s="1">
         <v>87</v>
       </c>
       <c r="AF2" s="1" t="s">
@@ -1856,7 +1986,7 @@
       <c r="AH2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="1">
         <v>407</v>
       </c>
       <c r="AJ2" s="1" t="s">
@@ -1868,7 +1998,7 @@
       <c r="AL2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="1">
         <v>131</v>
       </c>
       <c r="AN2" s="1" t="s">
@@ -1880,7 +2010,7 @@
       <c r="AP2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" s="1" t="n">
+      <c r="AQ2" s="1">
         <v>97</v>
       </c>
       <c r="AR2" s="1" t="s">
@@ -1892,7 +2022,7 @@
       <c r="AT2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AU2" s="1" t="n">
+      <c r="AU2" s="1">
         <v>556</v>
       </c>
       <c r="AV2" s="1" t="s">
@@ -1904,7 +2034,7 @@
       <c r="AX2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="1" t="n">
+      <c r="AY2" s="1">
         <v>134</v>
       </c>
       <c r="AZ2" s="1" t="s">
@@ -1916,7 +2046,7 @@
       <c r="BB2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BC2" s="1" t="n">
+      <c r="BC2" s="1">
         <v>2467</v>
       </c>
       <c r="BD2" s="1" t="s">
@@ -1928,7 +2058,7 @@
       <c r="BF2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BG2" s="1" t="n">
+      <c r="BG2" s="1">
         <v>156</v>
       </c>
       <c r="BH2" s="1" t="s">
@@ -1940,7 +2070,7 @@
       <c r="BJ2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="1" t="n">
+      <c r="BK2" s="1">
         <v>2825</v>
       </c>
       <c r="BL2" s="1" t="s">
@@ -1952,7 +2082,7 @@
       <c r="BN2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BO2" s="1" t="n">
+      <c r="BO2" s="1">
         <v>88</v>
       </c>
       <c r="BP2" s="1" t="s">
@@ -1964,7 +2094,7 @@
       <c r="BR2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BS2" s="1" t="n">
+      <c r="BS2" s="1">
         <v>576</v>
       </c>
       <c r="BT2" s="1" t="s">
@@ -1976,7 +2106,7 @@
       <c r="BV2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BW2" s="1" t="n">
+      <c r="BW2" s="1">
         <v>2594</v>
       </c>
       <c r="BX2" s="1" t="s">
@@ -1988,7 +2118,7 @@
       <c r="BZ2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CA2" s="1" t="n">
+      <c r="CA2" s="1">
         <v>611</v>
       </c>
       <c r="CB2" s="1"/>
@@ -2169,50 +2299,50 @@
       <c r="IU2" s="1"/>
       <c r="IV2" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:256" ht="13">
+      <c r="A3" s="1">
         <v>4247</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>7046</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>16823372</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>2006</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="n">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>7046</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>7046</v>
       </c>
-      <c r="L3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="n">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -2224,7 +2354,7 @@
       <c r="R3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="1">
         <v>191</v>
       </c>
       <c r="T3" s="1" t="s">
@@ -2236,7 +2366,7 @@
       <c r="V3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="1">
         <v>223</v>
       </c>
       <c r="X3" s="1" t="s">
@@ -2248,7 +2378,7 @@
       <c r="Z3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AA3" s="1">
         <v>2</v>
       </c>
       <c r="AB3" s="1" t="s">
@@ -2260,7 +2390,7 @@
       <c r="AD3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AE3" s="1">
         <v>82</v>
       </c>
       <c r="AF3" s="1" t="s">
@@ -2272,7 +2402,7 @@
       <c r="AH3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI3" s="1">
         <v>37</v>
       </c>
       <c r="AJ3" s="1" t="s">
@@ -2284,7 +2414,7 @@
       <c r="AL3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="1">
         <v>14</v>
       </c>
       <c r="AN3" s="1" t="s">
@@ -2296,7 +2426,7 @@
       <c r="AP3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ3" s="1" t="n">
+      <c r="AQ3" s="1">
         <v>232</v>
       </c>
       <c r="AR3" s="1" t="s">
@@ -2308,7 +2438,7 @@
       <c r="AT3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AU3" s="1" t="n">
+      <c r="AU3" s="1">
         <v>449</v>
       </c>
       <c r="AV3" s="1" t="s">
@@ -2320,7 +2450,7 @@
       <c r="AX3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AY3" s="1" t="n">
+      <c r="AY3" s="1">
         <v>2</v>
       </c>
       <c r="AZ3" s="1" t="s">
@@ -2332,7 +2462,7 @@
       <c r="BB3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BC3" s="1" t="n">
+      <c r="BC3" s="1">
         <v>2208</v>
       </c>
       <c r="BD3" s="1" t="s">
@@ -2344,7 +2474,7 @@
       <c r="BF3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BG3" s="1" t="n">
+      <c r="BG3" s="1">
         <v>47</v>
       </c>
       <c r="BH3" s="1" t="s">
@@ -2356,7 +2486,7 @@
       <c r="BJ3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BK3" s="1" t="n">
+      <c r="BK3" s="1">
         <v>463</v>
       </c>
       <c r="BL3" s="1" t="s">
@@ -2368,7 +2498,7 @@
       <c r="BN3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BO3" s="1" t="n">
+      <c r="BO3" s="1">
         <v>2211</v>
       </c>
       <c r="BP3" s="1" t="s">
@@ -2380,7 +2510,7 @@
       <c r="BR3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BS3" s="1" t="n">
+      <c r="BS3" s="1">
         <v>62</v>
       </c>
       <c r="BT3" s="1" t="s">
@@ -2392,7 +2522,7 @@
       <c r="BV3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BW3" s="1" t="n">
+      <c r="BW3" s="1">
         <v>223</v>
       </c>
       <c r="BX3" s="1" t="s">
@@ -2404,7 +2534,7 @@
       <c r="BZ3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CA3" s="1" t="n">
+      <c r="CA3" s="1">
         <v>1</v>
       </c>
       <c r="CB3" s="1" t="s">
@@ -2416,7 +2546,7 @@
       <c r="CD3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CE3" s="1" t="n">
+      <c r="CE3" s="1">
         <v>470</v>
       </c>
       <c r="CF3" s="1" t="s">
@@ -2428,7 +2558,7 @@
       <c r="CH3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CI3" s="1" t="n">
+      <c r="CI3" s="1">
         <v>1</v>
       </c>
       <c r="CJ3" s="1" t="s">
@@ -2440,7 +2570,7 @@
       <c r="CL3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CM3" s="1" t="n">
+      <c r="CM3" s="1">
         <v>118</v>
       </c>
       <c r="CN3" s="1" t="s">
@@ -2452,7 +2582,7 @@
       <c r="CP3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CQ3" s="1" t="n">
+      <c r="CQ3" s="1">
         <v>10</v>
       </c>
       <c r="CR3" s="1"/>
@@ -2617,50 +2747,50 @@
       <c r="IU3" s="1"/>
       <c r="IV3" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:256" ht="13">
+      <c r="A4" s="1">
         <v>2412</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2412</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>18614015</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>2008</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>2412</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>2412</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="n">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2672,7 +2802,7 @@
       <c r="R4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="1">
         <v>2412</v>
       </c>
       <c r="T4" s="1"/>
@@ -2913,50 +3043,50 @@
       <c r="IU4" s="1"/>
       <c r="IV4" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:256" ht="13">
+      <c r="A5" s="1">
         <v>1791</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>5918</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>14551910</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>2003</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>5918</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="n">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>5918</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -2968,7 +3098,7 @@
       <c r="R5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="S5" s="1">
         <v>866</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -2980,7 +3110,7 @@
       <c r="V5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="W5" s="1">
         <v>1</v>
       </c>
       <c r="X5" s="1" t="s">
@@ -2992,7 +3122,7 @@
       <c r="Z5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AA5" s="1">
         <v>50</v>
       </c>
       <c r="AB5" s="1" t="s">
@@ -3004,7 +3134,7 @@
       <c r="AD5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AE5" s="1">
         <v>774</v>
       </c>
       <c r="AF5" s="1" t="s">
@@ -3016,7 +3146,7 @@
       <c r="AH5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI5" s="1" t="n">
+      <c r="AI5" s="1">
         <v>68</v>
       </c>
       <c r="AJ5" s="1" t="s">
@@ -3028,7 +3158,7 @@
       <c r="AL5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM5" s="1" t="n">
+      <c r="AM5" s="1">
         <v>23</v>
       </c>
       <c r="AN5" s="1" t="s">
@@ -3040,7 +3170,7 @@
       <c r="AP5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="1" t="n">
+      <c r="AQ5" s="1">
         <v>1</v>
       </c>
       <c r="AR5" s="1" t="s">
@@ -3052,7 +3182,7 @@
       <c r="AT5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU5" s="1" t="n">
+      <c r="AU5" s="1">
         <v>9</v>
       </c>
       <c r="AV5" s="1" t="s">
@@ -3064,7 +3194,7 @@
       <c r="AX5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY5" s="1" t="n">
+      <c r="AY5" s="1">
         <v>67</v>
       </c>
       <c r="AZ5" s="1" t="s">
@@ -3076,7 +3206,7 @@
       <c r="BB5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC5" s="1" t="n">
+      <c r="BC5" s="1">
         <v>124</v>
       </c>
       <c r="BD5" s="1" t="s">
@@ -3088,7 +3218,7 @@
       <c r="BF5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BG5" s="1" t="n">
+      <c r="BG5" s="1">
         <v>264</v>
       </c>
       <c r="BH5" s="1" t="s">
@@ -3100,7 +3230,7 @@
       <c r="BJ5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK5" s="1" t="n">
+      <c r="BK5" s="1">
         <v>1094</v>
       </c>
       <c r="BL5" s="1" t="s">
@@ -3112,7 +3242,7 @@
       <c r="BN5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BO5" s="1" t="n">
+      <c r="BO5" s="1">
         <v>1</v>
       </c>
       <c r="BP5" s="1" t="s">
@@ -3124,7 +3254,7 @@
       <c r="BR5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BS5" s="1" t="n">
+      <c r="BS5" s="1">
         <v>834</v>
       </c>
       <c r="BT5" s="1" t="s">
@@ -3136,7 +3266,7 @@
       <c r="BV5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BW5" s="1" t="n">
+      <c r="BW5" s="1">
         <v>273</v>
       </c>
       <c r="BX5" s="1" t="s">
@@ -3148,7 +3278,7 @@
       <c r="BZ5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CA5" s="1" t="n">
+      <c r="CA5" s="1">
         <v>517</v>
       </c>
       <c r="CB5" s="1" t="s">
@@ -3160,7 +3290,7 @@
       <c r="CD5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CE5" s="1" t="n">
+      <c r="CE5" s="1">
         <v>908</v>
       </c>
       <c r="CF5" s="1" t="s">
@@ -3172,7 +3302,7 @@
       <c r="CH5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CI5" s="1" t="n">
+      <c r="CI5" s="1">
         <v>4</v>
       </c>
       <c r="CJ5" s="1" t="s">
@@ -3184,7 +3314,7 @@
       <c r="CL5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM5" s="1" t="n">
+      <c r="CM5" s="1">
         <v>29</v>
       </c>
       <c r="CN5" s="1" t="s">
@@ -3196,7 +3326,7 @@
       <c r="CP5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CQ5" s="1" t="n">
+      <c r="CQ5" s="1">
         <v>11</v>
       </c>
       <c r="CR5" s="1"/>
@@ -3361,50 +3491,50 @@
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:256" ht="13">
+      <c r="A6" s="1">
         <v>1406</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1863</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>14562095</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>2003</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="n">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>1863</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>1863</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="n">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -3416,7 +3546,7 @@
       <c r="R6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="S6" s="1">
         <v>5</v>
       </c>
       <c r="T6" s="1" t="s">
@@ -3428,7 +3558,7 @@
       <c r="V6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="W6" s="1">
         <v>55</v>
       </c>
       <c r="X6" s="1" t="s">
@@ -3440,7 +3570,7 @@
       <c r="Z6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AA6" s="1">
         <v>22</v>
       </c>
       <c r="AB6" s="1" t="s">
@@ -3452,7 +3582,7 @@
       <c r="AD6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE6" s="1" t="n">
+      <c r="AE6" s="1">
         <v>9</v>
       </c>
       <c r="AF6" s="1" t="s">
@@ -3464,7 +3594,7 @@
       <c r="AH6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI6" s="1" t="n">
+      <c r="AI6" s="1">
         <v>24</v>
       </c>
       <c r="AJ6" s="1" t="s">
@@ -3476,7 +3606,7 @@
       <c r="AL6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM6" s="1" t="n">
+      <c r="AM6" s="1">
         <v>14</v>
       </c>
       <c r="AN6" s="1" t="s">
@@ -3488,7 +3618,7 @@
       <c r="AP6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ6" s="1" t="n">
+      <c r="AQ6" s="1">
         <v>44</v>
       </c>
       <c r="AR6" s="1" t="s">
@@ -3500,7 +3630,7 @@
       <c r="AT6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="1" t="n">
+      <c r="AU6" s="1">
         <v>177</v>
       </c>
       <c r="AV6" s="1" t="s">
@@ -3512,7 +3642,7 @@
       <c r="AX6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AY6" s="1" t="n">
+      <c r="AY6" s="1">
         <v>10</v>
       </c>
       <c r="AZ6" s="1" t="s">
@@ -3524,7 +3654,7 @@
       <c r="BB6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BC6" s="1" t="n">
+      <c r="BC6" s="1">
         <v>1</v>
       </c>
       <c r="BD6" s="1" t="s">
@@ -3536,7 +3666,7 @@
       <c r="BF6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BG6" s="1" t="n">
+      <c r="BG6" s="1">
         <v>9</v>
       </c>
       <c r="BH6" s="1" t="s">
@@ -3548,7 +3678,7 @@
       <c r="BJ6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BK6" s="1" t="n">
+      <c r="BK6" s="1">
         <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
@@ -3560,7 +3690,7 @@
       <c r="BN6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BO6" s="1" t="n">
+      <c r="BO6" s="1">
         <v>1</v>
       </c>
       <c r="BP6" s="1" t="s">
@@ -3572,7 +3702,7 @@
       <c r="BR6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BS6" s="1" t="n">
+      <c r="BS6" s="1">
         <v>16</v>
       </c>
       <c r="BT6" s="1" t="s">
@@ -3584,7 +3714,7 @@
       <c r="BV6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BW6" s="1" t="n">
+      <c r="BW6" s="1">
         <v>12</v>
       </c>
       <c r="BX6" s="1" t="s">
@@ -3596,7 +3726,7 @@
       <c r="BZ6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CA6" s="1" t="n">
+      <c r="CA6" s="1">
         <v>512</v>
       </c>
       <c r="CB6" s="1" t="s">
@@ -3608,7 +3738,7 @@
       <c r="CD6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CE6" s="1" t="n">
+      <c r="CE6" s="1">
         <v>3</v>
       </c>
       <c r="CF6" s="1" t="s">
@@ -3620,7 +3750,7 @@
       <c r="CH6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CI6" s="1" t="n">
+      <c r="CI6" s="1">
         <v>94</v>
       </c>
       <c r="CJ6" s="1" t="s">
@@ -3632,7 +3762,7 @@
       <c r="CL6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CM6" s="1" t="n">
+      <c r="CM6" s="1">
         <v>851</v>
       </c>
       <c r="CN6" s="1" t="s">
@@ -3644,7 +3774,7 @@
       <c r="CP6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CQ6" s="1" t="n">
+      <c r="CQ6" s="1">
         <v>1</v>
       </c>
       <c r="CR6" s="1" t="s">
@@ -3656,7 +3786,7 @@
       <c r="CT6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CU6" s="1" t="n">
+      <c r="CU6" s="1">
         <v>1</v>
       </c>
       <c r="CV6" s="1"/>
@@ -3817,50 +3947,50 @@
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:256" ht="13">
+      <c r="A7" s="1">
         <v>1251</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1251</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>18431481</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>2008</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="n">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>1251</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>1251</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="n">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3872,7 +4002,7 @@
       <c r="R7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="1">
         <v>1251</v>
       </c>
       <c r="T7" s="1"/>
@@ -4113,50 +4243,50 @@
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:256" ht="13">
+      <c r="A8" s="1">
         <v>1205</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>1476</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>15791247</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>2005</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="n">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>1476</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="n">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>1476</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -4168,7 +4298,7 @@
       <c r="R8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="1">
         <v>2</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -4180,7 +4310,7 @@
       <c r="V8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="W8" s="1">
         <v>2</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -4192,7 +4322,7 @@
       <c r="Z8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA8" s="1" t="n">
+      <c r="AA8" s="1">
         <v>15</v>
       </c>
       <c r="AB8" s="1" t="s">
@@ -4204,7 +4334,7 @@
       <c r="AD8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE8" s="1" t="n">
+      <c r="AE8" s="1">
         <v>19</v>
       </c>
       <c r="AF8" s="1" t="s">
@@ -4216,7 +4346,7 @@
       <c r="AH8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI8" s="1" t="n">
+      <c r="AI8" s="1">
         <v>13</v>
       </c>
       <c r="AJ8" s="1" t="s">
@@ -4228,7 +4358,7 @@
       <c r="AL8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM8" s="1" t="n">
+      <c r="AM8" s="1">
         <v>1234</v>
       </c>
       <c r="AN8" s="1" t="s">
@@ -4240,7 +4370,7 @@
       <c r="AP8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ8" s="1" t="n">
+      <c r="AQ8" s="1">
         <v>7</v>
       </c>
       <c r="AR8" s="1" t="s">
@@ -4252,7 +4382,7 @@
       <c r="AT8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU8" s="1" t="n">
+      <c r="AU8" s="1">
         <v>148</v>
       </c>
       <c r="AV8" s="1" t="s">
@@ -4264,7 +4394,7 @@
       <c r="AX8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY8" s="1" t="n">
+      <c r="AY8" s="1">
         <v>36</v>
       </c>
       <c r="AZ8" s="1"/>
@@ -4473,50 +4603,50 @@
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:256" ht="13">
+      <c r="A9" s="1">
         <v>1186</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>1213</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>14651853</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>2003</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="n">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>1213</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="n">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>1213</v>
       </c>
-      <c r="L9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="n">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -4528,7 +4658,7 @@
       <c r="R9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="1">
         <v>1213</v>
       </c>
       <c r="T9" s="1"/>
@@ -4769,50 +4899,50 @@
       <c r="IU9" s="1"/>
       <c r="IV9" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:256" ht="13">
+      <c r="A10" s="1">
         <v>1136</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>1136</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>17317660</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>2007</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="n">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>1136</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="n">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>1136</v>
       </c>
-      <c r="L10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="n">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -4824,7 +4954,7 @@
       <c r="R10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="1">
         <v>1136</v>
       </c>
       <c r="T10" s="1"/>
@@ -5065,50 +5195,50 @@
       <c r="IU10" s="1"/>
       <c r="IV10" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:256" ht="13">
+      <c r="A11" s="1">
         <v>1101</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>2269</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>12529635</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>2003</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="n">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>2269</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="n">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>2269</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -5120,7 +5250,7 @@
       <c r="R11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="1">
         <v>18</v>
       </c>
       <c r="T11" s="1" t="s">
@@ -5132,7 +5262,7 @@
       <c r="V11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="W11" s="1">
         <v>1</v>
       </c>
       <c r="X11" s="1" t="s">
@@ -5144,7 +5274,7 @@
       <c r="Z11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AA11" s="1">
         <v>62</v>
       </c>
       <c r="AB11" s="1" t="s">
@@ -5156,7 +5286,7 @@
       <c r="AD11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE11" s="1" t="n">
+      <c r="AE11" s="1">
         <v>456</v>
       </c>
       <c r="AF11" s="1" t="s">
@@ -5168,7 +5298,7 @@
       <c r="AH11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AI11" s="1">
         <v>5</v>
       </c>
       <c r="AJ11" s="1" t="s">
@@ -5180,7 +5310,7 @@
       <c r="AL11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="1">
         <v>1</v>
       </c>
       <c r="AN11" s="1" t="s">
@@ -5192,7 +5322,7 @@
       <c r="AP11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ11" s="1" t="n">
+      <c r="AQ11" s="1">
         <v>238</v>
       </c>
       <c r="AR11" s="1" t="s">
@@ -5204,7 +5334,7 @@
       <c r="AT11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU11" s="1" t="n">
+      <c r="AU11" s="1">
         <v>10</v>
       </c>
       <c r="AV11" s="1" t="s">
@@ -5216,7 +5346,7 @@
       <c r="AX11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY11" s="1" t="n">
+      <c r="AY11" s="1">
         <v>26</v>
       </c>
       <c r="AZ11" s="1" t="s">
@@ -5228,7 +5358,7 @@
       <c r="BB11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC11" s="1" t="n">
+      <c r="BC11" s="1">
         <v>29</v>
       </c>
       <c r="BD11" s="1" t="s">
@@ -5240,7 +5370,7 @@
       <c r="BF11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BG11" s="1" t="n">
+      <c r="BG11" s="1">
         <v>1</v>
       </c>
       <c r="BH11" s="1" t="s">
@@ -5252,7 +5382,7 @@
       <c r="BJ11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK11" s="1" t="n">
+      <c r="BK11" s="1">
         <v>69</v>
       </c>
       <c r="BL11" s="1" t="s">
@@ -5264,7 +5394,7 @@
       <c r="BN11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BO11" s="1" t="n">
+      <c r="BO11" s="1">
         <v>158</v>
       </c>
       <c r="BP11" s="1" t="s">
@@ -5276,7 +5406,7 @@
       <c r="BR11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BS11" s="1" t="n">
+      <c r="BS11" s="1">
         <v>568</v>
       </c>
       <c r="BT11" s="1" t="s">
@@ -5288,7 +5418,7 @@
       <c r="BV11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BW11" s="1" t="n">
+      <c r="BW11" s="1">
         <v>19</v>
       </c>
       <c r="BX11" s="1" t="s">
@@ -5300,7 +5430,7 @@
       <c r="BZ11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CA11" s="1" t="n">
+      <c r="CA11" s="1">
         <v>74</v>
       </c>
       <c r="CB11" s="1" t="s">
@@ -5312,7 +5442,7 @@
       <c r="CD11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CE11" s="1" t="n">
+      <c r="CE11" s="1">
         <v>321</v>
       </c>
       <c r="CF11" s="1" t="s">
@@ -5324,7 +5454,7 @@
       <c r="CH11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CI11" s="1" t="n">
+      <c r="CI11" s="1">
         <v>134</v>
       </c>
       <c r="CJ11" s="1" t="s">
@@ -5336,7 +5466,7 @@
       <c r="CL11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM11" s="1" t="n">
+      <c r="CM11" s="1">
         <v>9</v>
       </c>
       <c r="CN11" s="1" t="s">
@@ -5348,7 +5478,7 @@
       <c r="CP11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CQ11" s="1" t="n">
+      <c r="CQ11" s="1">
         <v>25</v>
       </c>
       <c r="CR11" s="1" t="s">
@@ -5360,7 +5490,7 @@
       <c r="CT11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CU11" s="1" t="n">
+      <c r="CU11" s="1">
         <v>45</v>
       </c>
       <c r="CV11" s="1"/>
@@ -5521,50 +5651,50 @@
       <c r="IU11" s="1"/>
       <c r="IV11" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:256" ht="13">
+      <c r="A12" s="1">
         <v>1043</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>1365</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>15525680</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>2005</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="n">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>1365</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>1365</v>
       </c>
-      <c r="L12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="n">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -5576,7 +5706,7 @@
       <c r="R12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="S12" s="1">
         <v>355</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -5588,7 +5718,7 @@
       <c r="V12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="W12" s="1">
         <v>306</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -5600,7 +5730,7 @@
       <c r="Z12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AA12" s="1">
         <v>704</v>
       </c>
       <c r="AB12" s="1"/>
@@ -5833,50 +5963,50 @@
       <c r="IU12" s="1"/>
       <c r="IV12" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:256" ht="13">
+      <c r="A13" s="1">
         <v>1041</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>1041</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>21166475</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>2011</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="n">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>1041</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="n">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>1041</v>
       </c>
-      <c r="L13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="n">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -5888,7 +6018,7 @@
       <c r="R13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="S13" s="1">
         <v>1041</v>
       </c>
       <c r="T13" s="1"/>
@@ -6129,50 +6259,50 @@
       <c r="IU13" s="1"/>
       <c r="IV13" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:256" ht="13">
+      <c r="A14" s="1">
         <v>865</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>1533</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>15489339</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>2004</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="n">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>1533</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="n">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>1533</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -6184,7 +6314,7 @@
       <c r="R14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="S14" s="1">
         <v>271</v>
       </c>
       <c r="T14" s="1" t="s">
@@ -6196,7 +6326,7 @@
       <c r="V14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="W14" s="1">
         <v>34</v>
       </c>
       <c r="X14" s="1" t="s">
@@ -6208,7 +6338,7 @@
       <c r="Z14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AA14" s="1">
         <v>32</v>
       </c>
       <c r="AB14" s="1" t="s">
@@ -6220,7 +6350,7 @@
       <c r="AD14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE14" s="1" t="n">
+      <c r="AE14" s="1">
         <v>25</v>
       </c>
       <c r="AF14" s="1" t="s">
@@ -6232,7 +6362,7 @@
       <c r="AH14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI14" s="1" t="n">
+      <c r="AI14" s="1">
         <v>15</v>
       </c>
       <c r="AJ14" s="1" t="s">
@@ -6244,7 +6374,7 @@
       <c r="AL14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM14" s="1" t="n">
+      <c r="AM14" s="1">
         <v>18</v>
       </c>
       <c r="AN14" s="1" t="s">
@@ -6256,7 +6386,7 @@
       <c r="AP14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ14" s="1" t="n">
+      <c r="AQ14" s="1">
         <v>1</v>
       </c>
       <c r="AR14" s="1" t="s">
@@ -6268,7 +6398,7 @@
       <c r="AT14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU14" s="1" t="n">
+      <c r="AU14" s="1">
         <v>18</v>
       </c>
       <c r="AV14" s="1" t="s">
@@ -6280,7 +6410,7 @@
       <c r="AX14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY14" s="1" t="n">
+      <c r="AY14" s="1">
         <v>28</v>
       </c>
       <c r="AZ14" s="1" t="s">
@@ -6292,7 +6422,7 @@
       <c r="BB14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC14" s="1" t="n">
+      <c r="BC14" s="1">
         <v>303</v>
       </c>
       <c r="BD14" s="1" t="s">
@@ -6304,7 +6434,7 @@
       <c r="BF14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BG14" s="1" t="n">
+      <c r="BG14" s="1">
         <v>1</v>
       </c>
       <c r="BH14" s="1" t="s">
@@ -6316,7 +6446,7 @@
       <c r="BJ14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK14" s="1" t="n">
+      <c r="BK14" s="1">
         <v>7</v>
       </c>
       <c r="BL14" s="1" t="s">
@@ -6328,7 +6458,7 @@
       <c r="BN14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BO14" s="1" t="n">
+      <c r="BO14" s="1">
         <v>120</v>
       </c>
       <c r="BP14" s="1" t="s">
@@ -6340,7 +6470,7 @@
       <c r="BR14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BS14" s="1" t="n">
+      <c r="BS14" s="1">
         <v>263</v>
       </c>
       <c r="BT14" s="1" t="s">
@@ -6352,7 +6482,7 @@
       <c r="BV14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BW14" s="1" t="n">
+      <c r="BW14" s="1">
         <v>385</v>
       </c>
       <c r="BX14" s="1" t="s">
@@ -6364,7 +6494,7 @@
       <c r="BZ14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CA14" s="1" t="n">
+      <c r="CA14" s="1">
         <v>2</v>
       </c>
       <c r="CB14" s="1" t="s">
@@ -6376,7 +6506,7 @@
       <c r="CD14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CE14" s="1" t="n">
+      <c r="CE14" s="1">
         <v>10</v>
       </c>
       <c r="CF14" s="1"/>
@@ -6553,50 +6683,50 @@
       <c r="IU14" s="1"/>
       <c r="IV14" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:256" ht="13">
+      <c r="A15" s="1">
         <v>845</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>845</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>16823961</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>2006</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="n">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>845</v>
       </c>
-      <c r="J15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="n">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>845</v>
       </c>
-      <c r="L15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1" t="n">
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -6608,7 +6738,7 @@
       <c r="R15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="S15" s="1">
         <v>845</v>
       </c>
       <c r="T15" s="1"/>
@@ -6849,50 +6979,50 @@
       <c r="IU15" s="1"/>
       <c r="IV15" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:256" ht="13">
+      <c r="A16" s="1">
         <v>784</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>784</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>21533090</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>2011</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="n">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>784</v>
       </c>
-      <c r="J16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="n">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>784</v>
       </c>
-      <c r="L16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1" t="n">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -6904,7 +7034,7 @@
       <c r="R16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="S16" s="1">
         <v>784</v>
       </c>
       <c r="T16" s="1"/>
@@ -7145,50 +7275,50 @@
       <c r="IU16" s="1"/>
       <c r="IV16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:256" ht="13">
+      <c r="A17" s="1">
         <v>735</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>735</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>14532352</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>2003</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="n">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>735</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="n">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>735</v>
       </c>
-      <c r="L17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="n">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -7200,7 +7330,7 @@
       <c r="R17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="S17" s="1">
         <v>735</v>
       </c>
       <c r="T17" s="1"/>
@@ -7441,50 +7571,50 @@
       <c r="IU17" s="1"/>
       <c r="IV17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:256" ht="13">
+      <c r="A18" s="1">
         <v>724</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>882</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>20061580</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>2010</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="n">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>882</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="n">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>882</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1" t="n">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -7496,7 +7626,7 @@
       <c r="R18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="S18" s="1">
         <v>167</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -7508,7 +7638,7 @@
       <c r="V18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="1" t="n">
+      <c r="W18" s="1">
         <v>12</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -7520,7 +7650,7 @@
       <c r="Z18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AA18" s="1">
         <v>428</v>
       </c>
       <c r="AB18" s="1" t="s">
@@ -7532,7 +7662,7 @@
       <c r="AD18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE18" s="1" t="n">
+      <c r="AE18" s="1">
         <v>275</v>
       </c>
       <c r="AF18" s="1"/>
@@ -7761,50 +7891,50 @@
       <c r="IU18" s="1"/>
       <c r="IV18" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:256" ht="13">
+      <c r="A19" s="1">
         <v>634</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>634</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>15028209</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>2004</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="n">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>634</v>
       </c>
-      <c r="J19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="n">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>634</v>
       </c>
-      <c r="L19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="n">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -7816,7 +7946,7 @@
       <c r="R19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="S19" s="1">
         <v>634</v>
       </c>
       <c r="T19" s="1"/>
@@ -8057,50 +8187,50 @@
       <c r="IU19" s="1"/>
       <c r="IV19" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:256" ht="13">
+      <c r="A20" s="1">
         <v>613</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>613</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>12657046</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>2003</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="n">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>613</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="n">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
         <v>613</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -8112,7 +8242,7 @@
       <c r="R20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="S20" s="1">
         <v>613</v>
       </c>
       <c r="T20" s="1"/>
@@ -8353,50 +8483,50 @@
       <c r="IU20" s="1"/>
       <c r="IV20" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:256" ht="13">
+      <c r="A21" s="1">
         <v>607</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>661</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>17704769</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>2007</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="n">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>659</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="1">
         <v>2</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="n">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <v>2</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1" t="n">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
         <v>659</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -8408,7 +8538,7 @@
       <c r="R21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="S21" s="1">
         <v>53</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -8420,7 +8550,7 @@
       <c r="V21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="W21" s="1">
         <v>2</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -8432,7 +8562,7 @@
       <c r="Z21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="AA21" s="1">
         <v>606</v>
       </c>
       <c r="AB21" s="1"/>
@@ -8665,50 +8795,50 @@
       <c r="IU21" s="1"/>
       <c r="IV21" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:256" ht="13">
+      <c r="A22" s="1">
         <v>577</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>577</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>17432890</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>2007</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="n">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>577</v>
       </c>
-      <c r="J22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="n">
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
         <v>577</v>
       </c>
-      <c r="L22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1" t="n">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -8720,7 +8850,7 @@
       <c r="R22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="1" t="n">
+      <c r="S22" s="1">
         <v>577</v>
       </c>
       <c r="T22" s="1"/>
@@ -8961,50 +9091,50 @@
       <c r="IU22" s="1"/>
       <c r="IV22" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:256" ht="13">
+      <c r="A23" s="1">
         <v>553</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>884</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>11231151</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>2001</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="n">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>884</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="n">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
         <v>884</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -9016,7 +9146,7 @@
       <c r="R23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S23" s="1" t="n">
+      <c r="S23" s="1">
         <v>100</v>
       </c>
       <c r="T23" s="1" t="s">
@@ -9028,7 +9158,7 @@
       <c r="V23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W23" s="1" t="n">
+      <c r="W23" s="1">
         <v>29</v>
       </c>
       <c r="X23" s="1" t="s">
@@ -9040,7 +9170,7 @@
       <c r="Z23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA23" s="1" t="n">
+      <c r="AA23" s="1">
         <v>37</v>
       </c>
       <c r="AB23" s="1" t="s">
@@ -9052,7 +9182,7 @@
       <c r="AD23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE23" s="1" t="n">
+      <c r="AE23" s="1">
         <v>1</v>
       </c>
       <c r="AF23" s="1" t="s">
@@ -9064,7 +9194,7 @@
       <c r="AH23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI23" s="1" t="n">
+      <c r="AI23" s="1">
         <v>4</v>
       </c>
       <c r="AJ23" s="1" t="s">
@@ -9076,7 +9206,7 @@
       <c r="AL23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM23" s="1" t="n">
+      <c r="AM23" s="1">
         <v>15</v>
       </c>
       <c r="AN23" s="1" t="s">
@@ -9088,7 +9218,7 @@
       <c r="AP23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ23" s="1" t="n">
+      <c r="AQ23" s="1">
         <v>332</v>
       </c>
       <c r="AR23" s="1" t="s">
@@ -9100,7 +9230,7 @@
       <c r="AT23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU23" s="1" t="n">
+      <c r="AU23" s="1">
         <v>5</v>
       </c>
       <c r="AV23" s="1" t="s">
@@ -9112,7 +9242,7 @@
       <c r="AX23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY23" s="1" t="n">
+      <c r="AY23" s="1">
         <v>8</v>
       </c>
       <c r="AZ23" s="1" t="s">
@@ -9124,7 +9254,7 @@
       <c r="BB23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC23" s="1" t="n">
+      <c r="BC23" s="1">
         <v>233</v>
       </c>
       <c r="BD23" s="1" t="s">
@@ -9136,7 +9266,7 @@
       <c r="BF23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BG23" s="1" t="n">
+      <c r="BG23" s="1">
         <v>114</v>
       </c>
       <c r="BH23" s="1" t="s">
@@ -9148,7 +9278,7 @@
       <c r="BJ23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK23" s="1" t="n">
+      <c r="BK23" s="1">
         <v>3</v>
       </c>
       <c r="BL23" s="1" t="s">
@@ -9160,7 +9290,7 @@
       <c r="BN23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BO23" s="1" t="n">
+      <c r="BO23" s="1">
         <v>3</v>
       </c>
       <c r="BP23" s="1"/>
@@ -9353,50 +9483,50 @@
       <c r="IU23" s="1"/>
       <c r="IV23" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:256" ht="13">
+      <c r="A24" s="1">
         <v>516</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>5972</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>17417969</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>2007</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="n">
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <v>5972</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="n">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>5972</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -9408,7 +9538,7 @@
       <c r="R24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S24" s="1" t="n">
+      <c r="S24" s="1">
         <v>1203</v>
       </c>
       <c r="T24" s="1" t="s">
@@ -9420,7 +9550,7 @@
       <c r="V24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W24" s="1" t="n">
+      <c r="W24" s="1">
         <v>8</v>
       </c>
       <c r="X24" s="1" t="s">
@@ -9432,7 +9562,7 @@
       <c r="Z24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA24" s="1" t="n">
+      <c r="AA24" s="1">
         <v>257</v>
       </c>
       <c r="AB24" s="1" t="s">
@@ -9444,7 +9574,7 @@
       <c r="AD24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE24" s="1" t="n">
+      <c r="AE24" s="1">
         <v>17</v>
       </c>
       <c r="AF24" s="1" t="s">
@@ -9456,7 +9586,7 @@
       <c r="AH24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI24" s="1" t="n">
+      <c r="AI24" s="1">
         <v>20</v>
       </c>
       <c r="AJ24" s="1" t="s">
@@ -9468,7 +9598,7 @@
       <c r="AL24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM24" s="1" t="n">
+      <c r="AM24" s="1">
         <v>34</v>
       </c>
       <c r="AN24" s="1" t="s">
@@ -9480,7 +9610,7 @@
       <c r="AP24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ24" s="1" t="n">
+      <c r="AQ24" s="1">
         <v>156</v>
       </c>
       <c r="AR24" s="1" t="s">
@@ -9492,7 +9622,7 @@
       <c r="AT24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU24" s="1" t="n">
+      <c r="AU24" s="1">
         <v>106</v>
       </c>
       <c r="AV24" s="1" t="s">
@@ -9504,7 +9634,7 @@
       <c r="AX24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY24" s="1" t="n">
+      <c r="AY24" s="1">
         <v>742</v>
       </c>
       <c r="AZ24" s="1" t="s">
@@ -9516,7 +9646,7 @@
       <c r="BB24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC24" s="1" t="n">
+      <c r="BC24" s="1">
         <v>107</v>
       </c>
       <c r="BD24" s="1" t="s">
@@ -9528,7 +9658,7 @@
       <c r="BF24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BG24" s="1" t="n">
+      <c r="BG24" s="1">
         <v>663</v>
       </c>
       <c r="BH24" s="1" t="s">
@@ -9540,7 +9670,7 @@
       <c r="BJ24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK24" s="1" t="n">
+      <c r="BK24" s="1">
         <v>1335</v>
       </c>
       <c r="BL24" s="1" t="s">
@@ -9552,7 +9682,7 @@
       <c r="BN24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BO24" s="1" t="n">
+      <c r="BO24" s="1">
         <v>1236</v>
       </c>
       <c r="BP24" s="1" t="s">
@@ -9564,7 +9694,7 @@
       <c r="BR24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BS24" s="1" t="n">
+      <c r="BS24" s="1">
         <v>45</v>
       </c>
       <c r="BT24" s="1" t="s">
@@ -9576,7 +9706,7 @@
       <c r="BV24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BW24" s="1" t="n">
+      <c r="BW24" s="1">
         <v>21</v>
       </c>
       <c r="BX24" s="1" t="s">
@@ -9588,7 +9718,7 @@
       <c r="BZ24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CA24" s="1" t="n">
+      <c r="CA24" s="1">
         <v>22</v>
       </c>
       <c r="CB24" s="1"/>
@@ -9769,50 +9899,50 @@
       <c r="IU24" s="1"/>
       <c r="IV24" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:256" ht="13">
+      <c r="A25" s="1">
         <v>503</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>503</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>14576278</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1">
         <v>2003</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="n">
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>503</v>
       </c>
-      <c r="J25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="n">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>503</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1" t="n">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -9824,7 +9954,7 @@
       <c r="R25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="1" t="n">
+      <c r="S25" s="1">
         <v>503</v>
       </c>
       <c r="T25" s="1"/>
@@ -10065,50 +10195,50 @@
       <c r="IU25" s="1"/>
       <c r="IV25" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:256" ht="13">
+      <c r="A26" s="1">
         <v>498</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>638</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>16429126</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1">
         <v>2006</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="1">
         <v>638</v>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1" t="n">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
         <v>638</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -10120,7 +10250,7 @@
       <c r="R26" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="1" t="n">
+      <c r="S26" s="1">
         <v>638</v>
       </c>
       <c r="T26" s="1"/>
@@ -10361,50 +10491,50 @@
       <c r="IU26" s="1"/>
       <c r="IV26" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:256" ht="13">
+      <c r="A27" s="1">
         <v>479</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>848</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>21529718</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="1">
         <v>2011</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="n">
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
         <v>848</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="n">
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
         <v>848</v>
       </c>
-      <c r="O27" s="1" t="n">
+      <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -10416,7 +10546,7 @@
       <c r="R27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S27" s="1" t="n">
+      <c r="S27" s="1">
         <v>1</v>
       </c>
       <c r="T27" s="1" t="s">
@@ -10428,7 +10558,7 @@
       <c r="V27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W27" s="1" t="n">
+      <c r="W27" s="1">
         <v>2</v>
       </c>
       <c r="X27" s="1" t="s">
@@ -10440,7 +10570,7 @@
       <c r="Z27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA27" s="1" t="n">
+      <c r="AA27" s="1">
         <v>107</v>
       </c>
       <c r="AB27" s="1" t="s">
@@ -10452,7 +10582,7 @@
       <c r="AD27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE27" s="1" t="n">
+      <c r="AE27" s="1">
         <v>280</v>
       </c>
       <c r="AF27" s="1" t="s">
@@ -10464,7 +10594,7 @@
       <c r="AH27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI27" s="1" t="n">
+      <c r="AI27" s="1">
         <v>22</v>
       </c>
       <c r="AJ27" s="1" t="s">
@@ -10476,7 +10606,7 @@
       <c r="AL27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM27" s="1" t="n">
+      <c r="AM27" s="1">
         <v>414</v>
       </c>
       <c r="AN27" s="1" t="s">
@@ -10488,7 +10618,7 @@
       <c r="AP27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ27" s="1" t="n">
+      <c r="AQ27" s="1">
         <v>22</v>
       </c>
       <c r="AR27" s="1"/>
@@ -10705,50 +10835,50 @@
       <c r="IU27" s="1"/>
       <c r="IV27" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:256" ht="13">
+      <c r="A28" s="1">
         <v>465</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>468</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>11256614</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1">
         <v>2000</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="n">
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
         <v>468</v>
       </c>
-      <c r="J28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1" t="n">
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>468</v>
       </c>
-      <c r="L28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1" t="n">
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -10760,7 +10890,7 @@
       <c r="R28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="1" t="n">
+      <c r="S28" s="1">
         <v>70</v>
       </c>
       <c r="T28" s="1" t="s">
@@ -10772,7 +10902,7 @@
       <c r="V28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W28" s="1" t="n">
+      <c r="W28" s="1">
         <v>4</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -10784,7 +10914,7 @@
       <c r="Z28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA28" s="1" t="n">
+      <c r="AA28" s="1">
         <v>1</v>
       </c>
       <c r="AB28" s="1" t="s">
@@ -10796,7 +10926,7 @@
       <c r="AD28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="1" t="n">
+      <c r="AE28" s="1">
         <v>6</v>
       </c>
       <c r="AF28" s="1" t="s">
@@ -10808,7 +10938,7 @@
       <c r="AH28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI28" s="1" t="n">
+      <c r="AI28" s="1">
         <v>13</v>
       </c>
       <c r="AJ28" s="1" t="s">
@@ -10820,7 +10950,7 @@
       <c r="AL28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM28" s="1" t="n">
+      <c r="AM28" s="1">
         <v>10</v>
       </c>
       <c r="AN28" s="1" t="s">
@@ -10832,7 +10962,7 @@
       <c r="AP28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ28" s="1" t="n">
+      <c r="AQ28" s="1">
         <v>2</v>
       </c>
       <c r="AR28" s="1" t="s">
@@ -10844,7 +10974,7 @@
       <c r="AT28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AU28" s="1" t="n">
+      <c r="AU28" s="1">
         <v>7</v>
       </c>
       <c r="AV28" s="1" t="s">
@@ -10856,7 +10986,7 @@
       <c r="AX28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AY28" s="1" t="n">
+      <c r="AY28" s="1">
         <v>45</v>
       </c>
       <c r="AZ28" s="1" t="s">
@@ -10868,7 +10998,7 @@
       <c r="BB28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BC28" s="1" t="n">
+      <c r="BC28" s="1">
         <v>6</v>
       </c>
       <c r="BD28" s="1" t="s">
@@ -10880,7 +11010,7 @@
       <c r="BF28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BG28" s="1" t="n">
+      <c r="BG28" s="1">
         <v>16</v>
       </c>
       <c r="BH28" s="1" t="s">
@@ -10892,7 +11022,7 @@
       <c r="BJ28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BK28" s="1" t="n">
+      <c r="BK28" s="1">
         <v>6</v>
       </c>
       <c r="BL28" s="1" t="s">
@@ -10904,7 +11034,7 @@
       <c r="BN28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BO28" s="1" t="n">
+      <c r="BO28" s="1">
         <v>51</v>
       </c>
       <c r="BP28" s="1" t="s">
@@ -10916,7 +11046,7 @@
       <c r="BR28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BS28" s="1" t="n">
+      <c r="BS28" s="1">
         <v>79</v>
       </c>
       <c r="BT28" s="1" t="s">
@@ -10928,7 +11058,7 @@
       <c r="BV28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BW28" s="1" t="n">
+      <c r="BW28" s="1">
         <v>1</v>
       </c>
       <c r="BX28" s="1" t="s">
@@ -10940,7 +11070,7 @@
       <c r="BZ28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CA28" s="1" t="n">
+      <c r="CA28" s="1">
         <v>1</v>
       </c>
       <c r="CB28" s="1" t="s">
@@ -10952,7 +11082,7 @@
       <c r="CD28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CE28" s="1" t="n">
+      <c r="CE28" s="1">
         <v>92</v>
       </c>
       <c r="CF28" s="1" t="s">
@@ -10964,7 +11094,7 @@
       <c r="CH28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CI28" s="1" t="n">
+      <c r="CI28" s="1">
         <v>18</v>
       </c>
       <c r="CJ28" s="1" t="s">
@@ -10976,7 +11106,7 @@
       <c r="CL28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CM28" s="1" t="n">
+      <c r="CM28" s="1">
         <v>25</v>
       </c>
       <c r="CN28" s="1" t="s">
@@ -10988,7 +11118,7 @@
       <c r="CP28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CQ28" s="1" t="n">
+      <c r="CQ28" s="1">
         <v>15</v>
       </c>
       <c r="CR28" s="1"/>
@@ -11153,50 +11283,50 @@
       <c r="IU28" s="1"/>
       <c r="IV28" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:256" ht="13">
+      <c r="A29" s="1">
         <v>436</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>436</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>17644812</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>2007</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="n">
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
         <v>436</v>
       </c>
-      <c r="J29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="n">
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
         <v>436</v>
       </c>
-      <c r="L29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1" t="n">
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -11208,7 +11338,7 @@
       <c r="R29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="1" t="n">
+      <c r="S29" s="1">
         <v>436</v>
       </c>
       <c r="T29" s="1"/>
@@ -11449,50 +11579,50 @@
       <c r="IU29" s="1"/>
       <c r="IV29" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:256" ht="13">
+      <c r="A30" s="1">
         <v>430</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>513</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>16618929</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>2006</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="n">
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
         <v>513</v>
       </c>
-      <c r="J30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="n">
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
         <v>513</v>
       </c>
-      <c r="L30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1" t="n">
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -11504,7 +11634,7 @@
       <c r="R30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S30" s="1" t="n">
+      <c r="S30" s="1">
         <v>85</v>
       </c>
       <c r="T30" s="1" t="s">
@@ -11516,7 +11646,7 @@
       <c r="V30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W30" s="1" t="n">
+      <c r="W30" s="1">
         <v>24</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -11528,7 +11658,7 @@
       <c r="Z30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA30" s="1" t="n">
+      <c r="AA30" s="1">
         <v>59</v>
       </c>
       <c r="AB30" s="1" t="s">
@@ -11540,7 +11670,7 @@
       <c r="AD30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE30" s="1" t="n">
+      <c r="AE30" s="1">
         <v>59</v>
       </c>
       <c r="AF30" s="1" t="s">
@@ -11552,7 +11682,7 @@
       <c r="AH30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI30" s="1" t="n">
+      <c r="AI30" s="1">
         <v>24</v>
       </c>
       <c r="AJ30" s="1" t="s">
@@ -11564,7 +11694,7 @@
       <c r="AL30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM30" s="1" t="n">
+      <c r="AM30" s="1">
         <v>174</v>
       </c>
       <c r="AN30" s="1" t="s">
@@ -11576,7 +11706,7 @@
       <c r="AP30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ30" s="1" t="n">
+      <c r="AQ30" s="1">
         <v>88</v>
       </c>
       <c r="AR30" s="1"/>
@@ -11793,50 +11923,50 @@
       <c r="IU30" s="1"/>
       <c r="IV30" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:256" ht="13">
+      <c r="A31" s="1">
         <v>413</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>456</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>18433294</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="1">
         <v>2008</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1" t="n">
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
         <v>39</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="1">
         <v>417</v>
       </c>
-      <c r="J31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="n">
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <v>417</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1" t="n">
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
         <v>39</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
@@ -11848,7 +11978,7 @@
       <c r="R31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="1" t="n">
+      <c r="S31" s="1">
         <v>3</v>
       </c>
       <c r="T31" s="1" t="s">
@@ -11860,7 +11990,7 @@
       <c r="V31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W31" s="1" t="n">
+      <c r="W31" s="1">
         <v>3</v>
       </c>
       <c r="X31" s="1" t="s">
@@ -11872,7 +12002,7 @@
       <c r="Z31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA31" s="1" t="n">
+      <c r="AA31" s="1">
         <v>413</v>
       </c>
       <c r="AB31" s="1" t="s">
@@ -11884,7 +12014,7 @@
       <c r="AD31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE31" s="1" t="n">
+      <c r="AE31" s="1">
         <v>20</v>
       </c>
       <c r="AF31" s="1" t="s">
@@ -11896,7 +12026,7 @@
       <c r="AH31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI31" s="1" t="n">
+      <c r="AI31" s="1">
         <v>16</v>
       </c>
       <c r="AJ31" s="1" t="s">
@@ -11908,7 +12038,7 @@
       <c r="AL31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM31" s="1" t="n">
+      <c r="AM31" s="1">
         <v>1</v>
       </c>
       <c r="AN31" s="1"/>
@@ -12129,50 +12259,50 @@
       <c r="IU31" s="1"/>
       <c r="IV31" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:256" ht="13">
+      <c r="A32" s="1">
         <v>401</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>401</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>17151019</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="1">
         <v>2007</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="n">
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
         <v>401</v>
       </c>
-      <c r="J32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1" t="n">
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
         <v>401</v>
       </c>
-      <c r="L32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1" t="n">
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="1" t="s">
@@ -12184,7 +12314,7 @@
       <c r="R32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S32" s="1" t="n">
+      <c r="S32" s="1">
         <v>401</v>
       </c>
       <c r="T32" s="1"/>
@@ -12425,50 +12555,50 @@
       <c r="IU32" s="1"/>
       <c r="IV32" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:256" ht="13">
+      <c r="A33" s="1">
         <v>392</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>392</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>14671022</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="1">
         <v>2004</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="n">
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
         <v>392</v>
       </c>
-      <c r="J33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1" t="n">
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
         <v>392</v>
       </c>
-      <c r="L33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1" t="n">
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -12480,7 +12610,7 @@
       <c r="R33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S33" s="1" t="n">
+      <c r="S33" s="1">
         <v>392</v>
       </c>
       <c r="T33" s="1"/>
@@ -12721,50 +12851,50 @@
       <c r="IU33" s="1"/>
       <c r="IV33" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:256" ht="13">
+      <c r="A34" s="1">
         <v>392</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>639</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>12529643</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="1">
         <v>2003</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="n">
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
         <v>639</v>
       </c>
-      <c r="I34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
         <v>639</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -12776,7 +12906,7 @@
       <c r="R34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="1" t="n">
+      <c r="S34" s="1">
         <v>3</v>
       </c>
       <c r="T34" s="1" t="s">
@@ -12788,7 +12918,7 @@
       <c r="V34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W34" s="1" t="n">
+      <c r="W34" s="1">
         <v>636</v>
       </c>
       <c r="X34" s="1"/>
@@ -13025,50 +13155,50 @@
       <c r="IU34" s="1"/>
       <c r="IV34" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:256" ht="13">
+      <c r="A35" s="1">
         <v>383</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>917</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>12445391</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="1">
         <v>2002</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1" t="n">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
         <v>917</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
         <v>917</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="1" t="s">
@@ -13080,7 +13210,7 @@
       <c r="R35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S35" s="1" t="n">
+      <c r="S35" s="1">
         <v>75</v>
       </c>
       <c r="T35" s="1" t="s">
@@ -13092,7 +13222,7 @@
       <c r="V35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W35" s="1" t="n">
+      <c r="W35" s="1">
         <v>13</v>
       </c>
       <c r="X35" s="1" t="s">
@@ -13104,7 +13234,7 @@
       <c r="Z35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA35" s="1" t="n">
+      <c r="AA35" s="1">
         <v>73</v>
       </c>
       <c r="AB35" s="1" t="s">
@@ -13116,7 +13246,7 @@
       <c r="AD35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE35" s="1" t="n">
+      <c r="AE35" s="1">
         <v>9</v>
       </c>
       <c r="AF35" s="1" t="s">
@@ -13128,7 +13258,7 @@
       <c r="AH35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI35" s="1" t="n">
+      <c r="AI35" s="1">
         <v>15</v>
       </c>
       <c r="AJ35" s="1" t="s">
@@ -13140,7 +13270,7 @@
       <c r="AL35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM35" s="1" t="n">
+      <c r="AM35" s="1">
         <v>15</v>
       </c>
       <c r="AN35" s="1" t="s">
@@ -13152,7 +13282,7 @@
       <c r="AP35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ35" s="1" t="n">
+      <c r="AQ35" s="1">
         <v>15</v>
       </c>
       <c r="AR35" s="1" t="s">
@@ -13164,7 +13294,7 @@
       <c r="AT35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU35" s="1" t="n">
+      <c r="AU35" s="1">
         <v>53</v>
       </c>
       <c r="AV35" s="1" t="s">
@@ -13176,7 +13306,7 @@
       <c r="AX35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY35" s="1" t="n">
+      <c r="AY35" s="1">
         <v>20</v>
       </c>
       <c r="AZ35" s="1" t="s">
@@ -13188,7 +13318,7 @@
       <c r="BB35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC35" s="1" t="n">
+      <c r="BC35" s="1">
         <v>3</v>
       </c>
       <c r="BD35" s="1" t="s">
@@ -13200,7 +13330,7 @@
       <c r="BF35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BG35" s="1" t="n">
+      <c r="BG35" s="1">
         <v>342</v>
       </c>
       <c r="BH35" s="1" t="s">
@@ -13212,7 +13342,7 @@
       <c r="BJ35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK35" s="1" t="n">
+      <c r="BK35" s="1">
         <v>17</v>
       </c>
       <c r="BL35" s="1" t="s">
@@ -13224,7 +13354,7 @@
       <c r="BN35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BO35" s="1" t="n">
+      <c r="BO35" s="1">
         <v>6</v>
       </c>
       <c r="BP35" s="1" t="s">
@@ -13236,7 +13366,7 @@
       <c r="BR35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BS35" s="1" t="n">
+      <c r="BS35" s="1">
         <v>128</v>
       </c>
       <c r="BT35" s="1" t="s">
@@ -13248,7 +13378,7 @@
       <c r="BV35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BW35" s="1" t="n">
+      <c r="BW35" s="1">
         <v>76</v>
       </c>
       <c r="BX35" s="1" t="s">
@@ -13260,7 +13390,7 @@
       <c r="BZ35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CA35" s="1" t="n">
+      <c r="CA35" s="1">
         <v>3</v>
       </c>
       <c r="CB35" s="1" t="s">
@@ -13272,7 +13402,7 @@
       <c r="CD35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CE35" s="1" t="n">
+      <c r="CE35" s="1">
         <v>1</v>
       </c>
       <c r="CF35" s="1" t="s">
@@ -13284,7 +13414,7 @@
       <c r="CH35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CI35" s="1" t="n">
+      <c r="CI35" s="1">
         <v>53</v>
       </c>
       <c r="CJ35" s="1"/>
@@ -13457,50 +13587,50 @@
       <c r="IU35" s="1"/>
       <c r="IV35" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:256" ht="13">
+      <c r="A36" s="1">
         <v>380</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>380</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>15539469</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="1">
         <v>2004</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="n">
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
         <v>380</v>
       </c>
-      <c r="J36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1" t="n">
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
         <v>380</v>
       </c>
-      <c r="L36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="n">
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="1" t="s">
@@ -13512,7 +13642,7 @@
       <c r="R36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S36" s="1" t="n">
+      <c r="S36" s="1">
         <v>380</v>
       </c>
       <c r="T36" s="1"/>
@@ -13753,50 +13883,50 @@
       <c r="IU36" s="1"/>
       <c r="IV36" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:256" ht="13">
+      <c r="A37" s="1">
         <v>375</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>375</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>12865426</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="1">
         <v>2003</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="n">
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
         <v>375</v>
       </c>
-      <c r="J37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1" t="n">
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
         <v>375</v>
       </c>
-      <c r="L37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1" t="n">
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="1" t="s">
@@ -13808,7 +13938,7 @@
       <c r="R37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S37" s="1" t="n">
+      <c r="S37" s="1">
         <v>375</v>
       </c>
       <c r="T37" s="1"/>
@@ -14049,50 +14179,50 @@
       <c r="IU37" s="1"/>
       <c r="IV37" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:256" ht="13">
+      <c r="A38" s="1">
         <v>343</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>509</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>16189514</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="1">
         <v>2005</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="1">
         <v>509</v>
       </c>
-      <c r="H38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1" t="n">
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
         <v>509</v>
       </c>
       <c r="P38" s="1" t="s">
@@ -14104,7 +14234,7 @@
       <c r="R38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S38" s="1" t="n">
+      <c r="S38" s="1">
         <v>480</v>
       </c>
       <c r="T38" s="1" t="s">
@@ -14116,7 +14246,7 @@
       <c r="V38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="W38" s="1" t="n">
+      <c r="W38" s="1">
         <v>29</v>
       </c>
       <c r="X38" s="1"/>
@@ -14353,50 +14483,50 @@
       <c r="IU38" s="1"/>
       <c r="IV38" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:256" ht="13">
+      <c r="A39" s="1">
         <v>338</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>338</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>20422638</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="1">
         <v>2010</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="n">
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
         <v>338</v>
       </c>
-      <c r="J39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1" t="n">
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
         <v>338</v>
       </c>
-      <c r="L39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1" t="n">
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="1" t="s">
@@ -14408,7 +14538,7 @@
       <c r="R39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S39" s="1" t="n">
+      <c r="S39" s="1">
         <v>338</v>
       </c>
       <c r="T39" s="1"/>
@@ -14649,50 +14779,50 @@
       <c r="IU39" s="1"/>
       <c r="IV39" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:256" ht="13">
+      <c r="A40" s="1">
         <v>328</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>328</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>12938931</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="1">
         <v>2003</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="n">
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
         <v>328</v>
       </c>
-      <c r="J40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1" t="n">
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
         <v>328</v>
       </c>
-      <c r="L40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1" t="n">
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
         <v>0</v>
       </c>
       <c r="P40" s="1" t="s">
@@ -14704,7 +14834,7 @@
       <c r="R40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S40" s="1" t="n">
+      <c r="S40" s="1">
         <v>328</v>
       </c>
       <c r="T40" s="1"/>
@@ -14945,50 +15075,50 @@
       <c r="IU40" s="1"/>
       <c r="IV40" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:256" ht="13">
+      <c r="A41" s="1">
         <v>319</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>329</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>16336044</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="1">
         <v>2006</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="1">
         <v>328</v>
       </c>
-      <c r="I41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1" t="n">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
         <v>1</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1" t="n">
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
         <v>328</v>
       </c>
-      <c r="O41" s="1" t="n">
+      <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="1" t="s">
@@ -15000,7 +15130,7 @@
       <c r="R41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S41" s="1" t="n">
+      <c r="S41" s="1">
         <v>2</v>
       </c>
       <c r="T41" s="1" t="s">
@@ -15012,7 +15142,7 @@
       <c r="V41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W41" s="1" t="n">
+      <c r="W41" s="1">
         <v>1</v>
       </c>
       <c r="X41" s="1" t="s">
@@ -15024,7 +15154,7 @@
       <c r="Z41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA41" s="1" t="n">
+      <c r="AA41" s="1">
         <v>319</v>
       </c>
       <c r="AB41" s="1" t="s">
@@ -15036,7 +15166,7 @@
       <c r="AD41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE41" s="1" t="n">
+      <c r="AE41" s="1">
         <v>6</v>
       </c>
       <c r="AF41" s="1" t="s">
@@ -15048,7 +15178,7 @@
       <c r="AH41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI41" s="1" t="n">
+      <c r="AI41" s="1">
         <v>1</v>
       </c>
       <c r="AJ41" s="1"/>
@@ -15273,50 +15403,50 @@
       <c r="IU41" s="1"/>
       <c r="IV41" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:256" ht="13">
+      <c r="A42" s="1">
         <v>305</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>312</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>18633119</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="1">
         <v>2008</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="n">
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
         <v>312</v>
       </c>
-      <c r="J42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1" t="n">
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
         <v>312</v>
       </c>
-      <c r="L42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="1" t="n">
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="1" t="s">
@@ -15328,7 +15458,7 @@
       <c r="R42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S42" s="1" t="n">
+      <c r="S42" s="1">
         <v>53</v>
       </c>
       <c r="T42" s="1" t="s">
@@ -15340,7 +15470,7 @@
       <c r="V42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W42" s="1" t="n">
+      <c r="W42" s="1">
         <v>259</v>
       </c>
       <c r="X42" s="1"/>
@@ -15577,50 +15707,50 @@
       <c r="IU42" s="1"/>
       <c r="IV42" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:256" ht="13">
+      <c r="A43" s="1">
         <v>290</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>331</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>11914276</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="1">
         <v>2002</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="n">
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
         <v>331</v>
       </c>
-      <c r="J43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1" t="n">
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
         <v>331</v>
       </c>
-      <c r="L43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="1" t="n">
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="1" t="s">
@@ -15632,7 +15762,7 @@
       <c r="R43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S43" s="1" t="n">
+      <c r="S43" s="1">
         <v>4</v>
       </c>
       <c r="T43" s="1" t="s">
@@ -15644,7 +15774,7 @@
       <c r="V43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W43" s="1" t="n">
+      <c r="W43" s="1">
         <v>24</v>
       </c>
       <c r="X43" s="1" t="s">
@@ -15656,7 +15786,7 @@
       <c r="Z43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA43" s="1" t="n">
+      <c r="AA43" s="1">
         <v>3</v>
       </c>
       <c r="AB43" s="1" t="s">
@@ -15668,7 +15798,7 @@
       <c r="AD43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE43" s="1" t="n">
+      <c r="AE43" s="1">
         <v>21</v>
       </c>
       <c r="AF43" s="1" t="s">
@@ -15680,7 +15810,7 @@
       <c r="AH43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI43" s="1" t="n">
+      <c r="AI43" s="1">
         <v>58</v>
       </c>
       <c r="AJ43" s="1" t="s">
@@ -15692,7 +15822,7 @@
       <c r="AL43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM43" s="1" t="n">
+      <c r="AM43" s="1">
         <v>217</v>
       </c>
       <c r="AN43" s="1" t="s">
@@ -15704,7 +15834,7 @@
       <c r="AP43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ43" s="1" t="n">
+      <c r="AQ43" s="1">
         <v>4</v>
       </c>
       <c r="AR43" s="1"/>
@@ -15921,50 +16051,50 @@
       <c r="IU43" s="1"/>
       <c r="IV43" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:256" ht="13">
+      <c r="A44" s="1">
         <v>285</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>761</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="1">
         <v>11099033</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="1">
         <v>2000</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1" t="n">
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
         <v>761</v>
       </c>
-      <c r="I44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1" t="n">
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
         <v>761</v>
       </c>
-      <c r="O44" s="1" t="n">
+      <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -15976,7 +16106,7 @@
       <c r="R44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S44" s="1" t="n">
+      <c r="S44" s="1">
         <v>35</v>
       </c>
       <c r="T44" s="1" t="s">
@@ -15988,7 +16118,7 @@
       <c r="V44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W44" s="1" t="n">
+      <c r="W44" s="1">
         <v>4</v>
       </c>
       <c r="X44" s="1" t="s">
@@ -16000,7 +16130,7 @@
       <c r="Z44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA44" s="1" t="n">
+      <c r="AA44" s="1">
         <v>8</v>
       </c>
       <c r="AB44" s="1" t="s">
@@ -16012,7 +16142,7 @@
       <c r="AD44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE44" s="1" t="n">
+      <c r="AE44" s="1">
         <v>5</v>
       </c>
       <c r="AF44" s="1" t="s">
@@ -16024,7 +16154,7 @@
       <c r="AH44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI44" s="1" t="n">
+      <c r="AI44" s="1">
         <v>56</v>
       </c>
       <c r="AJ44" s="1" t="s">
@@ -16036,7 +16166,7 @@
       <c r="AL44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM44" s="1" t="n">
+      <c r="AM44" s="1">
         <v>204</v>
       </c>
       <c r="AN44" s="1" t="s">
@@ -16048,7 +16178,7 @@
       <c r="AP44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ44" s="1" t="n">
+      <c r="AQ44" s="1">
         <v>23</v>
       </c>
       <c r="AR44" s="1" t="s">
@@ -16060,7 +16190,7 @@
       <c r="AT44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU44" s="1" t="n">
+      <c r="AU44" s="1">
         <v>4</v>
       </c>
       <c r="AV44" s="1" t="s">
@@ -16072,7 +16202,7 @@
       <c r="AX44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY44" s="1" t="n">
+      <c r="AY44" s="1">
         <v>6</v>
       </c>
       <c r="AZ44" s="1" t="s">
@@ -16084,7 +16214,7 @@
       <c r="BB44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC44" s="1" t="n">
+      <c r="BC44" s="1">
         <v>4</v>
       </c>
       <c r="BD44" s="1" t="s">
@@ -16096,7 +16226,7 @@
       <c r="BF44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BG44" s="1" t="n">
+      <c r="BG44" s="1">
         <v>5</v>
       </c>
       <c r="BH44" s="1" t="s">
@@ -16108,7 +16238,7 @@
       <c r="BJ44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK44" s="1" t="n">
+      <c r="BK44" s="1">
         <v>38</v>
       </c>
       <c r="BL44" s="1" t="s">
@@ -16120,7 +16250,7 @@
       <c r="BN44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BO44" s="1" t="n">
+      <c r="BO44" s="1">
         <v>71</v>
       </c>
       <c r="BP44" s="1" t="s">
@@ -16132,7 +16262,7 @@
       <c r="BR44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BS44" s="1" t="n">
+      <c r="BS44" s="1">
         <v>1</v>
       </c>
       <c r="BT44" s="1" t="s">
@@ -16144,7 +16274,7 @@
       <c r="BV44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BW44" s="1" t="n">
+      <c r="BW44" s="1">
         <v>109</v>
       </c>
       <c r="BX44" s="1" t="s">
@@ -16156,7 +16286,7 @@
       <c r="BZ44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CA44" s="1" t="n">
+      <c r="CA44" s="1">
         <v>61</v>
       </c>
       <c r="CB44" s="1" t="s">
@@ -16168,7 +16298,7 @@
       <c r="CD44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CE44" s="1" t="n">
+      <c r="CE44" s="1">
         <v>36</v>
       </c>
       <c r="CF44" s="1" t="s">
@@ -16180,7 +16310,7 @@
       <c r="CH44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CI44" s="1" t="n">
+      <c r="CI44" s="1">
         <v>1</v>
       </c>
       <c r="CJ44" s="1" t="s">
@@ -16192,7 +16322,7 @@
       <c r="CL44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM44" s="1" t="n">
+      <c r="CM44" s="1">
         <v>1</v>
       </c>
       <c r="CN44" s="1" t="s">
@@ -16204,7 +16334,7 @@
       <c r="CP44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CQ44" s="1" t="n">
+      <c r="CQ44" s="1">
         <v>2</v>
       </c>
       <c r="CR44" s="1" t="s">
@@ -16216,7 +16346,7 @@
       <c r="CT44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CU44" s="1" t="n">
+      <c r="CU44" s="1">
         <v>11</v>
       </c>
       <c r="CV44" s="1" t="s">
@@ -16228,7 +16358,7 @@
       <c r="CX44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CY44" s="1" t="n">
+      <c r="CY44" s="1">
         <v>1</v>
       </c>
       <c r="CZ44" s="1" t="s">
@@ -16240,7 +16370,7 @@
       <c r="DB44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DC44" s="1" t="n">
+      <c r="DC44" s="1">
         <v>13</v>
       </c>
       <c r="DD44" s="1" t="s">
@@ -16252,7 +16382,7 @@
       <c r="DF44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DG44" s="1" t="n">
+      <c r="DG44" s="1">
         <v>7</v>
       </c>
       <c r="DH44" s="1" t="s">
@@ -16264,7 +16394,7 @@
       <c r="DJ44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DK44" s="1" t="n">
+      <c r="DK44" s="1">
         <v>9</v>
       </c>
       <c r="DL44" s="1" t="s">
@@ -16276,7 +16406,7 @@
       <c r="DN44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DO44" s="1" t="n">
+      <c r="DO44" s="1">
         <v>42</v>
       </c>
       <c r="DP44" s="1" t="s">
@@ -16288,7 +16418,7 @@
       <c r="DR44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DS44" s="1" t="n">
+      <c r="DS44" s="1">
         <v>1</v>
       </c>
       <c r="DT44" s="1" t="s">
@@ -16300,7 +16430,7 @@
       <c r="DV44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DW44" s="1" t="n">
+      <c r="DW44" s="1">
         <v>1</v>
       </c>
       <c r="DX44" s="1" t="s">
@@ -16312,7 +16442,7 @@
       <c r="DZ44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="EA44" s="1" t="n">
+      <c r="EA44" s="1">
         <v>2</v>
       </c>
       <c r="EB44" s="1"/>
@@ -16441,50 +16571,50 @@
       <c r="IU44" s="1"/>
       <c r="IV44" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:256" ht="13">
+      <c r="A45" s="1">
         <v>283</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>499</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>11099034</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="1">
         <v>2000</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1" t="n">
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
         <v>499</v>
       </c>
-      <c r="I45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1" t="n">
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
         <v>499</v>
       </c>
-      <c r="O45" s="1" t="n">
+      <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -16496,7 +16626,7 @@
       <c r="R45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S45" s="1" t="n">
+      <c r="S45" s="1">
         <v>52</v>
       </c>
       <c r="T45" s="1" t="s">
@@ -16508,7 +16638,7 @@
       <c r="V45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W45" s="1" t="n">
+      <c r="W45" s="1">
         <v>19</v>
       </c>
       <c r="X45" s="1" t="s">
@@ -16520,7 +16650,7 @@
       <c r="Z45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA45" s="1" t="n">
+      <c r="AA45" s="1">
         <v>4</v>
       </c>
       <c r="AB45" s="1" t="s">
@@ -16532,7 +16662,7 @@
       <c r="AD45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE45" s="1" t="n">
+      <c r="AE45" s="1">
         <v>23</v>
       </c>
       <c r="AF45" s="1" t="s">
@@ -16544,7 +16674,7 @@
       <c r="AH45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI45" s="1" t="n">
+      <c r="AI45" s="1">
         <v>304</v>
       </c>
       <c r="AJ45" s="1" t="s">
@@ -16556,7 +16686,7 @@
       <c r="AL45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM45" s="1" t="n">
+      <c r="AM45" s="1">
         <v>44</v>
       </c>
       <c r="AN45" s="1" t="s">
@@ -16568,7 +16698,7 @@
       <c r="AP45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ45" s="1" t="n">
+      <c r="AQ45" s="1">
         <v>52</v>
       </c>
       <c r="AR45" s="1" t="s">
@@ -16580,7 +16710,7 @@
       <c r="AT45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU45" s="1" t="n">
+      <c r="AU45" s="1">
         <v>1</v>
       </c>
       <c r="AV45" s="1"/>
@@ -16793,50 +16923,50 @@
       <c r="IU45" s="1"/>
       <c r="IV45" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:256" ht="13">
+      <c r="A46" s="1">
         <v>266</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>433</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="1">
         <v>11591653</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="1">
         <v>2001</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="1">
         <v>433</v>
       </c>
-      <c r="H46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1" t="n">
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
         <v>433</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -16848,7 +16978,7 @@
       <c r="R46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S46" s="1" t="n">
+      <c r="S46" s="1">
         <v>377</v>
       </c>
       <c r="T46" s="1" t="s">
@@ -16860,7 +16990,7 @@
       <c r="V46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="W46" s="1" t="n">
+      <c r="W46" s="1">
         <v>56</v>
       </c>
       <c r="X46" s="1"/>
@@ -17097,50 +17227,50 @@
       <c r="IU46" s="1"/>
       <c r="IV46" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:256" ht="13">
+      <c r="A47" s="1">
         <v>260</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>260</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>16502469</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="1">
         <v>2006</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1" t="n">
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
         <v>260</v>
       </c>
-      <c r="I47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1" t="n">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
         <v>260</v>
       </c>
-      <c r="M47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1" t="n">
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -17152,7 +17282,7 @@
       <c r="R47" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="S47" s="1" t="n">
+      <c r="S47" s="1">
         <v>260</v>
       </c>
       <c r="T47" s="1"/>
@@ -17393,50 +17523,50 @@
       <c r="IU47" s="1"/>
       <c r="IV47" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:256" ht="13">
+      <c r="A48" s="1">
         <v>258</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>259</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>12529438</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="1">
         <v>2003</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1" t="n">
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
         <v>259</v>
       </c>
-      <c r="I48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1" t="n">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
         <v>259</v>
       </c>
-      <c r="M48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1" t="n">
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -17448,7 +17578,7 @@
       <c r="R48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="S48" s="1" t="n">
+      <c r="S48" s="1">
         <v>1</v>
       </c>
       <c r="T48" s="1" t="s">
@@ -17460,7 +17590,7 @@
       <c r="V48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="W48" s="1" t="n">
+      <c r="W48" s="1">
         <v>10</v>
       </c>
       <c r="X48" s="1" t="s">
@@ -17472,7 +17602,7 @@
       <c r="Z48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AA48" s="1" t="n">
+      <c r="AA48" s="1">
         <v>9</v>
       </c>
       <c r="AB48" s="1" t="s">
@@ -17484,7 +17614,7 @@
       <c r="AD48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AE48" s="1" t="n">
+      <c r="AE48" s="1">
         <v>239</v>
       </c>
       <c r="AF48" s="1"/>
@@ -17713,50 +17843,50 @@
       <c r="IU48" s="1"/>
       <c r="IV48" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:256" ht="13">
+      <c r="A49" s="1">
         <v>244</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>397</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>17412918</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="1">
         <v>2007</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1" t="n">
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
         <v>367</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="I49" s="1">
         <v>30</v>
       </c>
-      <c r="J49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1" t="n">
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
         <v>30</v>
       </c>
-      <c r="L49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1" t="n">
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
         <v>367</v>
       </c>
-      <c r="O49" s="1" t="n">
+      <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
@@ -17768,7 +17898,7 @@
       <c r="R49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S49" s="1" t="n">
+      <c r="S49" s="1">
         <v>7</v>
       </c>
       <c r="T49" s="1" t="s">
@@ -17780,7 +17910,7 @@
       <c r="V49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="1" t="n">
+      <c r="W49" s="1">
         <v>1</v>
       </c>
       <c r="X49" s="1" t="s">
@@ -17792,7 +17922,7 @@
       <c r="Z49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA49" s="1" t="n">
+      <c r="AA49" s="1">
         <v>4</v>
       </c>
       <c r="AB49" s="1" t="s">
@@ -17804,7 +17934,7 @@
       <c r="AD49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE49" s="1" t="n">
+      <c r="AE49" s="1">
         <v>215</v>
       </c>
       <c r="AF49" s="1" t="s">
@@ -17816,7 +17946,7 @@
       <c r="AH49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI49" s="1" t="n">
+      <c r="AI49" s="1">
         <v>10</v>
       </c>
       <c r="AJ49" s="1" t="s">
@@ -17828,7 +17958,7 @@
       <c r="AL49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AM49" s="1" t="n">
+      <c r="AM49" s="1">
         <v>1</v>
       </c>
       <c r="AN49" s="1" t="s">
@@ -17840,7 +17970,7 @@
       <c r="AP49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ49" s="1" t="n">
+      <c r="AQ49" s="1">
         <v>100</v>
       </c>
       <c r="AR49" s="1" t="s">
@@ -17852,7 +17982,7 @@
       <c r="AT49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU49" s="1" t="n">
+      <c r="AU49" s="1">
         <v>2</v>
       </c>
       <c r="AV49" s="1" t="s">
@@ -17864,7 +17994,7 @@
       <c r="AX49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AY49" s="1" t="n">
+      <c r="AY49" s="1">
         <v>10</v>
       </c>
       <c r="AZ49" s="1" t="s">
@@ -17876,7 +18006,7 @@
       <c r="BB49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC49" s="1" t="n">
+      <c r="BC49" s="1">
         <v>5</v>
       </c>
       <c r="BD49" s="1" t="s">
@@ -17888,7 +18018,7 @@
       <c r="BF49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BG49" s="1" t="n">
+      <c r="BG49" s="1">
         <v>2</v>
       </c>
       <c r="BH49" s="1" t="s">
@@ -17900,7 +18030,7 @@
       <c r="BJ49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BK49" s="1" t="n">
+      <c r="BK49" s="1">
         <v>10</v>
       </c>
       <c r="BL49" s="1" t="s">
@@ -17912,7 +18042,7 @@
       <c r="BN49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BO49" s="1" t="n">
+      <c r="BO49" s="1">
         <v>10</v>
       </c>
       <c r="BP49" s="1" t="s">
@@ -17924,7 +18054,7 @@
       <c r="BR49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BS49" s="1" t="n">
+      <c r="BS49" s="1">
         <v>6</v>
       </c>
       <c r="BT49" s="1" t="s">
@@ -17936,7 +18066,7 @@
       <c r="BV49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BW49" s="1" t="n">
+      <c r="BW49" s="1">
         <v>3</v>
       </c>
       <c r="BX49" s="1" t="s">
@@ -17948,7 +18078,7 @@
       <c r="BZ49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CA49" s="1" t="n">
+      <c r="CA49" s="1">
         <v>11</v>
       </c>
       <c r="CB49" s="1"/>
@@ -18129,50 +18259,50 @@
       <c r="IU49" s="1"/>
       <c r="IV49" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:256" ht="13">
+      <c r="A50" s="1">
         <v>242</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>397</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>18981222</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="1">
         <v>2009</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1" t="n">
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
         <v>397</v>
       </c>
-      <c r="J50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1" t="n">
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
         <v>397</v>
       </c>
-      <c r="L50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="1" t="n">
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -18184,7 +18314,7 @@
       <c r="R50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S50" s="1" t="n">
+      <c r="S50" s="1">
         <v>170</v>
       </c>
       <c r="T50" s="1" t="s">
@@ -18196,7 +18326,7 @@
       <c r="V50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W50" s="1" t="n">
+      <c r="W50" s="1">
         <v>227</v>
       </c>
       <c r="X50" s="1"/>
@@ -18433,50 +18563,50 @@
       <c r="IU50" s="1"/>
       <c r="IV50" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:256" ht="13">
+      <c r="A51" s="1">
         <v>241</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="1">
         <v>263</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="1">
         <v>16287169</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="1">
         <v>2006</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1" t="n">
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
         <v>263</v>
       </c>
-      <c r="J51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1" t="n">
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
         <v>263</v>
       </c>
-      <c r="L51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1" t="n">
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
@@ -18488,7 +18618,7 @@
       <c r="R51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S51" s="1" t="n">
+      <c r="S51" s="1">
         <v>160</v>
       </c>
       <c r="T51" s="1" t="s">
@@ -18500,7 +18630,7 @@
       <c r="V51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W51" s="1" t="n">
+      <c r="W51" s="1">
         <v>103</v>
       </c>
       <c r="X51" s="1"/>
@@ -18737,38 +18867,38 @@
       <c r="IU51" s="1"/>
       <c r="IV51" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+    <row r="52" spans="1:256" ht="13">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="n">
+      <c r="G52" s="1">
         <v>1581</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="H52" s="1">
         <v>24241</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="I52" s="1">
         <v>38720</v>
       </c>
-      <c r="J52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1" t="n">
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
         <v>38721</v>
       </c>
-      <c r="L52" s="1" t="n">
+      <c r="L52" s="1">
         <v>519</v>
       </c>
-      <c r="M52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1" t="n">
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
         <v>23722</v>
       </c>
-      <c r="O52" s="1" t="n">
+      <c r="O52" s="1">
         <v>1580</v>
       </c>
       <c r="P52" s="1"/>
@@ -19013,38 +19143,38 @@
       <c r="IU52" s="1"/>
       <c r="IV52" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+    <row r="53" spans="1:256" ht="13">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="n">
+      <c r="G53" s="1">
         <v>115440</v>
       </c>
-      <c r="H53" s="1" t="n">
+      <c r="H53" s="1">
         <v>131804</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="1">
         <v>274964</v>
       </c>
-      <c r="J53" s="1" t="n">
+      <c r="J53" s="1">
         <v>31</v>
       </c>
-      <c r="K53" s="1" t="n">
+      <c r="K53" s="1">
         <v>233767</v>
       </c>
-      <c r="L53" s="1" t="n">
+      <c r="L53" s="1">
         <v>13972</v>
       </c>
-      <c r="M53" s="1" t="n">
+      <c r="M53" s="1">
         <v>26522</v>
       </c>
-      <c r="N53" s="1" t="n">
+      <c r="N53" s="1">
         <v>184084</v>
       </c>
-      <c r="O53" s="1" t="n">
+      <c r="O53" s="1">
         <v>63832</v>
       </c>
       <c r="P53" s="1"/>
@@ -19289,38 +19419,38 @@
       <c r="IU53" s="1"/>
       <c r="IV53" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+    <row r="54" spans="1:256" ht="13">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1" t="n">
+      <c r="G54" s="1">
         <v>1.4</v>
       </c>
-      <c r="H54" s="1" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="I54" s="1" t="n">
+      <c r="H54" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I54" s="1">
         <v>14.1</v>
       </c>
-      <c r="J54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="L54" s="1" t="n">
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L54" s="1">
         <v>3.7</v>
       </c>
-      <c r="M54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1" t="n">
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
         <v>12.9</v>
       </c>
-      <c r="O54" s="1" t="n">
+      <c r="O54" s="1">
         <v>2.5</v>
       </c>
       <c r="P54" s="1"/>
@@ -19566,35 +19696,31 @@
       <c r="IV54" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.92638888888889" bottom="1.92638888888889" header="1" footer="1"/>
-  <pageSetup blackAndWhite="false" cellComments="atEnd" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" cellComments="atEnd" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV53"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.243137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.0745098039216"/>
-    <col collapsed="false" hidden="false" max="256" min="10" style="0" width="7.58823529411765"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" spans="1:256" ht="26">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -19868,26 +19994,26 @@
       <c r="IU1" s="3"/>
       <c r="IV1" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.2" outlineLevel="0" r="2">
+    <row r="2" spans="1:256" ht="102.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>18029348</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>4937</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>11050</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>361</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="5" t="n">
-        <f aca="false">D2/C2</f>
-        <v>2.23820133684424</v>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G33" si="0">D2/C2</f>
+        <v>2.2382013368442375</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
@@ -20141,26 +20267,26 @@
       <c r="IU2" s="3"/>
       <c r="IV2" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.15" outlineLevel="0" r="3">
+    <row r="3" spans="1:256" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>16823372</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>4247</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>7046</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>363</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="n">
-        <f aca="false">D3/C3</f>
-        <v>1.65905344949376</v>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6590534494937603</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
@@ -20412,25 +20538,25 @@
       <c r="IU3" s="3"/>
       <c r="IV3" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="4">
+    <row r="4" spans="1:256" ht="16.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>18614015</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>2412</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>2412</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>361</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="n">
-        <f aca="false">D4/C4</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
@@ -20683,26 +20809,26 @@
       <c r="IU4" s="3"/>
       <c r="IV4" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="85.05" outlineLevel="0" r="5">
+    <row r="5" spans="1:256" ht="85" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>14551910</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>1791</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>5918</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>364</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="n">
-        <f aca="false">D5/C5</f>
-        <v>3.30429927414852</v>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3042992741485202</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
@@ -20956,26 +21082,26 @@
       <c r="IU5" s="3"/>
       <c r="IV5" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" spans="1:256" ht="13">
       <c r="A6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>14562095</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>1406</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>1863</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>366</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="n">
-        <f aca="false">D6/C6</f>
-        <v>1.32503556187767</v>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3250355618776672</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
@@ -21227,25 +21353,25 @@
       <c r="IU6" s="3"/>
       <c r="IV6" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+    <row r="7" spans="1:256" ht="13">
       <c r="A7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>18431481</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>1251</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>1251</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="n">
-        <f aca="false">D7/C7</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
@@ -21498,26 +21624,26 @@
       <c r="IU7" s="3"/>
       <c r="IV7" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+    <row r="8" spans="1:256" ht="13">
       <c r="A8" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>15791247</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>1205</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>1476</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>364</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="n">
-        <f aca="false">D8/C8</f>
-        <v>1.22489626556017</v>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2248962655601661</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
@@ -21769,26 +21895,26 @@
       <c r="IU8" s="3"/>
       <c r="IV8" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+    <row r="9" spans="1:256" ht="13">
       <c r="A9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="3">
         <v>14651853</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>1186</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>1213</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>368</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="n">
-        <f aca="false">D9/C9</f>
-        <v>1.02276559865093</v>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0227655986509274</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
@@ -22040,25 +22166,25 @@
       <c r="IU9" s="3"/>
       <c r="IV9" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+    <row r="10" spans="1:256" ht="13">
       <c r="A10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>17317660</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>1136</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>1136</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3" t="n">
-        <f aca="false">D10/C10</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
@@ -22311,26 +22437,26 @@
       <c r="IU10" s="3"/>
       <c r="IV10" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.55" outlineLevel="0" r="11">
+    <row r="11" spans="1:256" ht="83.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>12529635</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>1101</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>2269</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>364</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="n">
-        <f aca="false">D11/C11</f>
-        <v>2.06085376930064</v>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0608537693006359</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4" t="s">
@@ -22584,26 +22710,26 @@
       <c r="IU11" s="3"/>
       <c r="IV11" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" spans="1:256" ht="13">
       <c r="A12" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>15525680</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>1043</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>1365</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>370</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="n">
-        <f aca="false">D12/C12</f>
-        <v>1.30872483221477</v>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3087248322147651</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
@@ -22855,25 +22981,25 @@
       <c r="IU12" s="3"/>
       <c r="IV12" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+    <row r="13" spans="1:256" ht="13">
       <c r="A13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="3">
         <v>21166475</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>1041</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>1041</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="n">
-        <f aca="false">D13/C13</f>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="3"/>
@@ -23126,26 +23252,26 @@
       <c r="IU13" s="3"/>
       <c r="IV13" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" spans="1:256" ht="13">
       <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="3">
         <v>15489339</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>865</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>1533</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>364</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="n">
-        <f aca="false">D14/C14</f>
-        <v>1.77225433526012</v>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7722543352601157</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
@@ -23397,17 +23523,17 @@
       <c r="IU14" s="3"/>
       <c r="IV14" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+    <row r="15" spans="1:256" ht="13">
       <c r="A15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="3">
         <v>16823961</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>845</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="3">
         <v>845</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -23416,8 +23542,8 @@
       <c r="F15" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <f aca="false">D15/C15</f>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
@@ -23670,25 +23796,25 @@
       <c r="IU15" s="3"/>
       <c r="IV15" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" spans="1:256" ht="13">
       <c r="A16" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="3">
         <v>21533090</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>784</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>784</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="n">
-        <f aca="false">D16/C16</f>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H16" s="3"/>
@@ -23941,25 +24067,25 @@
       <c r="IU16" s="3"/>
       <c r="IV16" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+    <row r="17" spans="1:256" ht="13">
       <c r="A17" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="3">
         <v>14532352</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>735</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="3">
         <v>735</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>370</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="n">
-        <f aca="false">D17/C17</f>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" s="3"/>
@@ -24212,17 +24338,17 @@
       <c r="IU17" s="3"/>
       <c r="IV17" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+    <row r="18" spans="1:256" ht="13">
       <c r="A18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="3">
         <v>20061580</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>724</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>882</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -24231,9 +24357,9 @@
       <c r="F18" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <f aca="false">D18/C18</f>
-        <v>1.2182320441989</v>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.218232044198895</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
@@ -24485,17 +24611,17 @@
       <c r="IU18" s="3"/>
       <c r="IV18" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+    <row r="19" spans="1:256" ht="13">
       <c r="A19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="3">
         <v>15028209</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>634</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="3">
         <v>634</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -24504,8 +24630,8 @@
       <c r="F19" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <f aca="false">D19/C19</f>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="3"/>
@@ -24758,17 +24884,17 @@
       <c r="IU19" s="3"/>
       <c r="IV19" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+    <row r="20" spans="1:256" ht="13">
       <c r="A20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="3">
         <v>12657046</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>613</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>613</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -24777,8 +24903,8 @@
       <c r="F20" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <f aca="false">D20/C20</f>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H20" s="3"/>
@@ -25031,26 +25157,26 @@
       <c r="IU20" s="3"/>
       <c r="IV20" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+    <row r="21" spans="1:256" ht="13">
       <c r="A21" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>17704769</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>607</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>661</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>364</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3" t="n">
-        <f aca="false">D21/C21</f>
-        <v>1.08896210873147</v>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0889621087314663</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="4"/>
@@ -25302,17 +25428,17 @@
       <c r="IU21" s="3"/>
       <c r="IV21" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+    <row r="22" spans="1:256" ht="13">
       <c r="A22" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="3">
         <v>17432890</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>577</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="3">
         <v>577</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -25321,8 +25447,8 @@
       <c r="F22" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <f aca="false">D22/C22</f>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H22" s="3"/>
@@ -25575,26 +25701,26 @@
       <c r="IU22" s="3"/>
       <c r="IV22" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+    <row r="23" spans="1:256" ht="13">
       <c r="A23" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="3">
         <v>11231151</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3">
         <v>553</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="3">
         <v>884</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>364</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="n">
-        <f aca="false">D23/C23</f>
-        <v>1.59855334538879</v>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5985533453887883</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
@@ -25846,26 +25972,26 @@
       <c r="IU23" s="3"/>
       <c r="IV23" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="76.85" outlineLevel="0" r="24">
+    <row r="24" spans="1:256" ht="76.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>17417969</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5">
         <v>516</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="5">
         <v>5972</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>364</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5" t="n">
-        <f aca="false">D24/C24</f>
-        <v>11.5736434108527</v>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>11.573643410852712</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="4" t="s">
@@ -26119,17 +26245,17 @@
       <c r="IU24" s="3"/>
       <c r="IV24" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+    <row r="25" spans="1:256" ht="13">
       <c r="A25" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="3">
         <v>14576278</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>503</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="3">
         <v>503</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -26138,8 +26264,8 @@
       <c r="F25" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <f aca="false">D25/C25</f>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" s="3"/>
@@ -26392,17 +26518,17 @@
       <c r="IU25" s="3"/>
       <c r="IV25" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+    <row r="26" spans="1:256" ht="13">
       <c r="A26" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="3">
         <v>16429126</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>498</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="3">
         <v>638</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -26411,9 +26537,9 @@
       <c r="F26" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <f aca="false">D26/C26</f>
-        <v>1.28112449799197</v>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2811244979919678</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="4"/>
@@ -26665,26 +26791,26 @@
       <c r="IU26" s="3"/>
       <c r="IV26" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+    <row r="27" spans="1:256" ht="13">
       <c r="A27" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="3">
         <v>21529718</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>479</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="3">
         <v>848</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>364</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3" t="n">
-        <f aca="false">D27/C27</f>
-        <v>1.77035490605428</v>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7703549060542798</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="4"/>
@@ -26936,26 +27062,26 @@
       <c r="IU27" s="3"/>
       <c r="IV27" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+    <row r="28" spans="1:256" ht="13">
       <c r="A28" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="3">
         <v>11256614</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3">
         <v>465</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="3">
         <v>468</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>361</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3" t="n">
-        <f aca="false">D28/C28</f>
-        <v>1.00645161290323</v>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0064516129032257</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="4"/>
@@ -27207,25 +27333,25 @@
       <c r="IU28" s="3"/>
       <c r="IV28" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+    <row r="29" spans="1:256" ht="13">
       <c r="A29" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="3">
         <v>17644812</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3">
         <v>436</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="3">
         <v>436</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="n">
-        <f aca="false">D29/C29</f>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H29" s="3"/>
@@ -27478,26 +27604,26 @@
       <c r="IU29" s="3"/>
       <c r="IV29" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+    <row r="30" spans="1:256" ht="13">
       <c r="A30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="3">
         <v>16618929</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>430</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="3">
         <v>513</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3" t="n">
-        <f aca="false">D30/C30</f>
-        <v>1.19302325581395</v>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1930232558139535</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="4"/>
@@ -27749,26 +27875,26 @@
       <c r="IU30" s="3"/>
       <c r="IV30" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row r="31" spans="1:256" ht="13">
       <c r="A31" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="3">
         <v>18433294</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="3">
         <v>413</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="3">
         <v>456</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>378</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="n">
-        <f aca="false">D31/C31</f>
-        <v>1.10411622276029</v>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1041162227602905</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="4"/>
@@ -28020,25 +28146,25 @@
       <c r="IU31" s="3"/>
       <c r="IV31" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+    <row r="32" spans="1:256" ht="13">
       <c r="A32" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="3">
         <v>17151019</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>401</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="3">
         <v>401</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3" t="n">
-        <f aca="false">D32/C32</f>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H32" s="3"/>
@@ -28291,25 +28417,25 @@
       <c r="IU32" s="3"/>
       <c r="IV32" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+    <row r="33" spans="1:256" ht="13">
       <c r="A33" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="3">
         <v>14671022</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>392</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="3">
         <v>392</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="n">
-        <f aca="false">D33/C33</f>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H33" s="3"/>
@@ -28562,26 +28688,26 @@
       <c r="IU33" s="3"/>
       <c r="IV33" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+    <row r="34" spans="1:256" ht="13">
       <c r="A34" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="3">
         <v>12529643</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3">
         <v>392</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="3">
         <v>639</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>364</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3" t="n">
-        <f aca="false">D34/C34</f>
-        <v>1.63010204081633</v>
+      <c r="G34" s="3">
+        <f t="shared" ref="G34:G51" si="1">D34/C34</f>
+        <v>1.6301020408163265</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -28833,26 +28959,26 @@
       <c r="IU34" s="3"/>
       <c r="IV34" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.6" outlineLevel="0" r="35">
+    <row r="35" spans="1:256" ht="77.5" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="5">
         <v>12445391</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="5">
         <v>383</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="5">
         <v>917</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>364</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5" t="n">
-        <f aca="false">D35/C35</f>
-        <v>2.39425587467363</v>
+      <c r="G35" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3942558746736293</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="4" t="s">
@@ -29106,17 +29232,17 @@
       <c r="IU35" s="3"/>
       <c r="IV35" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+    <row r="36" spans="1:256" ht="13">
       <c r="A36" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="3">
         <v>15539469</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>380</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="3">
         <v>380</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -29125,8 +29251,8 @@
       <c r="F36" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <f aca="false">D36/C36</f>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H36" s="3"/>
@@ -29379,17 +29505,17 @@
       <c r="IU36" s="3"/>
       <c r="IV36" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+    <row r="37" spans="1:256" ht="13">
       <c r="A37" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="3">
         <v>12865426</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>375</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="3">
         <v>375</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -29398,8 +29524,8 @@
       <c r="F37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G37" s="3" t="n">
-        <f aca="false">D37/C37</f>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H37" s="3"/>
@@ -29652,26 +29778,26 @@
       <c r="IU37" s="3"/>
       <c r="IV37" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+    <row r="38" spans="1:256" ht="13">
       <c r="A38" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="3">
         <v>16189514</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>343</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="3">
         <v>509</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>361</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="n">
-        <f aca="false">D38/C38</f>
-        <v>1.48396501457726</v>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4839650145772594</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="4"/>
@@ -29923,25 +30049,25 @@
       <c r="IU38" s="3"/>
       <c r="IV38" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+    <row r="39" spans="1:256" ht="13">
       <c r="A39" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="3">
         <v>20422638</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>338</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="3">
         <v>338</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>382</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="n">
-        <f aca="false">D39/C39</f>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H39" s="3"/>
@@ -30194,25 +30320,25 @@
       <c r="IU39" s="3"/>
       <c r="IV39" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+    <row r="40" spans="1:256" ht="13">
       <c r="A40" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="3">
         <v>12938931</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="3">
         <v>328</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="3">
         <v>328</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="n">
-        <f aca="false">D40/C40</f>
+      <c r="G40" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H40" s="3"/>
@@ -30465,26 +30591,26 @@
       <c r="IU40" s="3"/>
       <c r="IV40" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+    <row r="41" spans="1:256" ht="13">
       <c r="A41" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="3">
         <v>16336044</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="3">
         <v>319</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="3">
         <v>329</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>383</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="3" t="n">
-        <f aca="false">D41/C41</f>
-        <v>1.03134796238245</v>
+      <c r="G41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0313479623824451</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="4"/>
@@ -30736,26 +30862,26 @@
       <c r="IU41" s="3"/>
       <c r="IV41" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+    <row r="42" spans="1:256" ht="13">
       <c r="A42" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="3">
         <v>18633119</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="3">
         <v>305</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="3">
         <v>312</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="3" t="n">
-        <f aca="false">D42/C42</f>
-        <v>1.02295081967213</v>
+      <c r="G42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0229508196721311</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="4"/>
@@ -31007,26 +31133,26 @@
       <c r="IU42" s="3"/>
       <c r="IV42" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+    <row r="43" spans="1:256" ht="13">
       <c r="A43" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="3">
         <v>11914276</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>290</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="3">
         <v>331</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>366</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="n">
-        <f aca="false">D43/C43</f>
-        <v>1.14137931034483</v>
+      <c r="G43" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1413793103448275</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
@@ -31278,26 +31404,26 @@
       <c r="IU43" s="3"/>
       <c r="IV43" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="76.85" outlineLevel="0" r="44">
+    <row r="44" spans="1:256" ht="76.75" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="5">
         <v>11099033</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="5">
         <v>285</v>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="D44" s="5">
         <v>761</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>364</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="5" t="n">
-        <f aca="false">D44/C44</f>
-        <v>2.67017543859649</v>
+      <c r="G44" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6701754385964911</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="4" t="s">
@@ -31551,26 +31677,26 @@
       <c r="IU44" s="3"/>
       <c r="IV44" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+    <row r="45" spans="1:256" ht="13">
       <c r="A45" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="3">
         <v>11099034</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" s="3">
         <v>283</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="3">
         <v>499</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>364</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="3" t="n">
-        <f aca="false">D45/C45</f>
-        <v>1.76325088339223</v>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7632508833922262</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="4"/>
@@ -31822,26 +31948,26 @@
       <c r="IU45" s="3"/>
       <c r="IV45" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
+    <row r="46" spans="1:256" ht="13">
       <c r="A46" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="3">
         <v>11591653</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" s="3">
         <v>266</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="3">
         <v>433</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>368</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3" t="n">
-        <f aca="false">D46/C46</f>
-        <v>1.62781954887218</v>
+      <c r="G46" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6278195488721805</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="4"/>
@@ -32093,25 +32219,25 @@
       <c r="IU46" s="3"/>
       <c r="IV46" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+    <row r="47" spans="1:256" ht="13">
       <c r="A47" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="3">
         <v>16502469</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="3">
         <v>260</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="3">
         <v>260</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="3" t="n">
-        <f aca="false">D47/C47</f>
+      <c r="G47" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H47" s="3"/>
@@ -32364,26 +32490,26 @@
       <c r="IU47" s="3"/>
       <c r="IV47" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+    <row r="48" spans="1:256" ht="13">
       <c r="A48" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="3">
         <v>12529438</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="3">
         <v>258</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="3">
         <v>259</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>363</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="n">
-        <f aca="false">D48/C48</f>
-        <v>1.00387596899225</v>
+      <c r="G48" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0038759689922481</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="4"/>
@@ -32635,26 +32761,26 @@
       <c r="IU48" s="3"/>
       <c r="IV48" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+    <row r="49" spans="1:256" ht="13">
       <c r="A49" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3">
         <v>17412918</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="C49" s="3">
         <v>244</v>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" s="3">
         <v>397</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>378</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="3" t="n">
-        <f aca="false">D49/C49</f>
-        <v>1.62704918032787</v>
+      <c r="G49" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6270491803278688</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="4"/>
@@ -32906,26 +33032,26 @@
       <c r="IU49" s="3"/>
       <c r="IV49" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+    <row r="50" spans="1:256" ht="13">
       <c r="A50" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="3">
         <v>18981222</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="3">
         <v>242</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="3">
         <v>397</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>378</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="3" t="n">
-        <f aca="false">D50/C50</f>
-        <v>1.6404958677686</v>
+      <c r="G50" s="3">
+        <f t="shared" si="1"/>
+        <v>1.640495867768595</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="4"/>
@@ -33177,26 +33303,26 @@
       <c r="IU50" s="3"/>
       <c r="IV50" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+    <row r="51" spans="1:256" ht="13">
       <c r="A51" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3">
         <v>16287169</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="3">
         <v>241</v>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="3">
         <v>263</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="3" t="n">
-        <f aca="false">D51/C51</f>
-        <v>1.09128630705394</v>
+      <c r="G51" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0912863070539418</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="4"/>
@@ -33448,7 +33574,7 @@
       <c r="IU51" s="3"/>
       <c r="IV51" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+    <row r="52" spans="1:256" ht="13">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -33457,9 +33583,9 @@
       <c r="F52" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="G52" s="3" t="n">
-        <f aca="false">MEDIAN(G2:G51)</f>
-        <v>1.0901242078927</v>
+      <c r="G52" s="3">
+        <f>MEDIAN(G2:G51)</f>
+        <v>1.090124207892704</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="4"/>
@@ -33711,7 +33837,7 @@
       <c r="IU52" s="3"/>
       <c r="IV52" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+    <row r="53" spans="1:256" ht="13">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -33720,9 +33846,9 @@
       <c r="F53" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G53" s="3" t="n">
-        <f aca="false">AVERAGE(G2:G51)</f>
-        <v>1.53757000091033</v>
+      <c r="G53" s="3">
+        <f>AVERAGE(G2:G51)</f>
+        <v>1.5375700009103312</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="4"/>
@@ -33976,13 +34102,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:F51"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.92638888888889" bottom="1.92638888888889" header="1" footer="1"/>
-  <pageSetup blackAndWhite="false" cellComments="atEnd" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" cellComments="atEnd" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>